--- a/Results/summary_de_5_fold_eva.xlsx
+++ b/Results/summary_de_5_fold_eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF55390-CAEB-45D6-AD95-3C9021C48606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418E21D-0504-439C-B865-ADB874DBB8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="2" r:id="rId1"/>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812FEE00-37CD-4574-A5FD-C310DAF701EF}">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54:T98"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5207,12 +5207,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="S52:T52"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="S2:T2"/>
@@ -5220,6 +5214,12 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="S52:T52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5230,7 +5230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D036BE2-578A-434B-9121-F99339399A5A}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -9683,6 +9683,4486 @@
       <c r="AI49">
         <f>AVERAGE(AI4:AI48)</f>
         <v>70.654448183423341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AC1:AF1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2328C8CC-3742-41E6-91E5-A15E74AAF9C2}">
+  <dimension ref="A1:AL49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="2"/>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AH1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="2">
+        <v>16</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="6"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>60.705369423610932</v>
+      </c>
+      <c r="F4">
+        <v>1.815530368813052</v>
+      </c>
+      <c r="G4">
+        <v>0.60705369423610933</v>
+      </c>
+      <c r="H4">
+        <v>0.53508449162859162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>52.979091514632479</v>
+      </c>
+      <c r="L4">
+        <v>2.7926855608430352</v>
+      </c>
+      <c r="M4">
+        <v>0.52979091514632481</v>
+      </c>
+      <c r="N4">
+        <v>0.44813288187626898</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>50.394640092042323</v>
+      </c>
+      <c r="R4">
+        <v>3.8970710063656342</v>
+      </c>
+      <c r="S4">
+        <v>0.5039464009204232</v>
+      </c>
+      <c r="T4">
+        <v>0.38898601523703502</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>50.725092777619182</v>
+      </c>
+      <c r="X4">
+        <v>4.0903544701030112</v>
+      </c>
+      <c r="Y4">
+        <v>0.50725092777619185</v>
+      </c>
+      <c r="Z4">
+        <v>0.39789532126388971</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>55.547020302943807</v>
+      </c>
+      <c r="AD4">
+        <v>5.396716361535427</v>
+      </c>
+      <c r="AE4">
+        <v>0.55547020302943795</v>
+      </c>
+      <c r="AF4">
+        <v>0.4415078459138792</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>52.245867178781829</v>
+      </c>
+      <c r="AJ4">
+        <v>3.8037249136465112</v>
+      </c>
+      <c r="AK4">
+        <v>0.52245867178781824</v>
+      </c>
+      <c r="AL4">
+        <v>0.41062696322492481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>58.477754997880609</v>
+      </c>
+      <c r="F5">
+        <v>2.7262092993179978</v>
+      </c>
+      <c r="G5">
+        <v>0.58477754997880604</v>
+      </c>
+      <c r="H5">
+        <v>0.52097364177969074</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>64.191472244569596</v>
+      </c>
+      <c r="L5">
+        <v>1.951101351877635</v>
+      </c>
+      <c r="M5">
+        <v>0.64191472244569581</v>
+      </c>
+      <c r="N5">
+        <v>0.57473333094886914</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>62.733933684547438</v>
+      </c>
+      <c r="R5">
+        <v>2.607102723851312</v>
+      </c>
+      <c r="S5">
+        <v>0.62733933684547449</v>
+      </c>
+      <c r="T5">
+        <v>0.57931939920873576</v>
+      </c>
+      <c r="V5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>48.443325634304799</v>
+      </c>
+      <c r="X5">
+        <v>5.177722524938523</v>
+      </c>
+      <c r="Y5">
+        <v>0.48443325634304801</v>
+      </c>
+      <c r="Z5">
+        <v>0.40846419455258448</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5">
+        <v>54.144672531769309</v>
+      </c>
+      <c r="AD5">
+        <v>3.4274993335041168</v>
+      </c>
+      <c r="AE5">
+        <v>0.54144672531769311</v>
+      </c>
+      <c r="AF5">
+        <v>0.46156301641070768</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5">
+        <v>48.98000847758199</v>
+      </c>
+      <c r="AJ5">
+        <v>8.5182244343777747</v>
+      </c>
+      <c r="AK5">
+        <v>0.48980008477581982</v>
+      </c>
+      <c r="AL5">
+        <v>0.37521026480918679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>54.495454112924861</v>
+      </c>
+      <c r="F6">
+        <v>3.4720402531634869</v>
+      </c>
+      <c r="G6">
+        <v>0.54495454112924846</v>
+      </c>
+      <c r="H6">
+        <v>0.45392820625702368</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>63.380306058010888</v>
+      </c>
+      <c r="L6">
+        <v>2.2430678875447478</v>
+      </c>
+      <c r="M6">
+        <v>0.63380306058010882</v>
+      </c>
+      <c r="N6">
+        <v>0.57157326371123574</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>57.424718206904899</v>
+      </c>
+      <c r="R6">
+        <v>2.5656372129296261</v>
+      </c>
+      <c r="S6">
+        <v>0.57424718206904912</v>
+      </c>
+      <c r="T6">
+        <v>0.50457800023749999</v>
+      </c>
+      <c r="V6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>33.554702030294379</v>
+      </c>
+      <c r="X6">
+        <v>9.904285525848703</v>
+      </c>
+      <c r="Y6">
+        <v>0.33554702030294381</v>
+      </c>
+      <c r="Z6">
+        <v>0.21122812814938999</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6">
+        <v>47.008970665836209</v>
+      </c>
+      <c r="AD6">
+        <v>5.9313001431265242</v>
+      </c>
+      <c r="AE6">
+        <v>0.47008970665836208</v>
+      </c>
+      <c r="AF6">
+        <v>0.34453355395437069</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6">
+        <v>50.479675429718249</v>
+      </c>
+      <c r="AJ6">
+        <v>6.406636442680993</v>
+      </c>
+      <c r="AK6">
+        <v>0.50479675429718252</v>
+      </c>
+      <c r="AL6">
+        <v>0.37212026431156481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>56.933883511103033</v>
+      </c>
+      <c r="F7">
+        <v>3.3032093053101561</v>
+      </c>
+      <c r="G7">
+        <v>0.56933883511103045</v>
+      </c>
+      <c r="H7">
+        <v>0.47001585296557968</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>61.673370876910703</v>
+      </c>
+      <c r="L7">
+        <v>2.6438955129396771</v>
+      </c>
+      <c r="M7">
+        <v>0.61673370876910705</v>
+      </c>
+      <c r="N7">
+        <v>0.55176817017587587</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>60.695680758484073</v>
+      </c>
+      <c r="R7">
+        <v>2.9068993933227221</v>
+      </c>
+      <c r="S7">
+        <v>0.60695680758484072</v>
+      </c>
+      <c r="T7">
+        <v>0.54120840143711546</v>
+      </c>
+      <c r="V7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7">
+        <v>48.720404155745292</v>
+      </c>
+      <c r="X7">
+        <v>7.0057698439317848</v>
+      </c>
+      <c r="Y7">
+        <v>0.48720404155745289</v>
+      </c>
+      <c r="Z7">
+        <v>0.37341082458332869</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7">
+        <v>47.711398887533633</v>
+      </c>
+      <c r="AD7">
+        <v>4.8647452925978714</v>
+      </c>
+      <c r="AE7">
+        <v>0.47711398887533629</v>
+      </c>
+      <c r="AF7">
+        <v>0.36792762771398801</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7">
+        <v>42.412218098772478</v>
+      </c>
+      <c r="AJ7">
+        <v>8.5112028073014496</v>
+      </c>
+      <c r="AK7">
+        <v>0.42412218098772481</v>
+      </c>
+      <c r="AL7">
+        <v>0.27025574587650342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>72.075883009368596</v>
+      </c>
+      <c r="F8">
+        <v>1.325955830806925</v>
+      </c>
+      <c r="G8">
+        <v>0.72075883009368591</v>
+      </c>
+      <c r="H8">
+        <v>0.68777775122950502</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>70.9728457858632</v>
+      </c>
+      <c r="L8">
+        <v>1.4924060158115029</v>
+      </c>
+      <c r="M8">
+        <v>0.70972845785863203</v>
+      </c>
+      <c r="N8">
+        <v>0.68358960515247147</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>47.426967361309352</v>
+      </c>
+      <c r="R8">
+        <v>8.1512626748845687</v>
+      </c>
+      <c r="S8">
+        <v>0.47426967361309352</v>
+      </c>
+      <c r="T8">
+        <v>0.37092827329548872</v>
+      </c>
+      <c r="V8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <v>57.273073296481797</v>
+      </c>
+      <c r="X8">
+        <v>4.9756198430824039</v>
+      </c>
+      <c r="Y8">
+        <v>0.57273073296481802</v>
+      </c>
+      <c r="Z8">
+        <v>0.4994381426084934</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8">
+        <v>49.601553646657848</v>
+      </c>
+      <c r="AD8">
+        <v>4.98822941391367</v>
+      </c>
+      <c r="AE8">
+        <v>0.49601553646657842</v>
+      </c>
+      <c r="AF8">
+        <v>0.41506804407686632</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI8">
+        <v>59.323177536137862</v>
+      </c>
+      <c r="AJ8">
+        <v>4.6811300155159667</v>
+      </c>
+      <c r="AK8">
+        <v>0.59323177536137861</v>
+      </c>
+      <c r="AL8">
+        <v>0.50339496079894719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>75.279457434752899</v>
+      </c>
+      <c r="F9">
+        <v>0.92392174069785449</v>
+      </c>
+      <c r="G9">
+        <v>0.75279457434752894</v>
+      </c>
+      <c r="H9">
+        <v>0.74406292856812983</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>58.602064031695782</v>
+      </c>
+      <c r="L9">
+        <v>2.5129891470378238</v>
+      </c>
+      <c r="M9">
+        <v>0.58602064031695777</v>
+      </c>
+      <c r="N9">
+        <v>0.53240162927440571</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>48.724902464554191</v>
+      </c>
+      <c r="R9">
+        <v>5.3649418093429029</v>
+      </c>
+      <c r="S9">
+        <v>0.48724902464554187</v>
+      </c>
+      <c r="T9">
+        <v>0.40131665757626039</v>
+      </c>
+      <c r="V9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>61.738077319007949</v>
+      </c>
+      <c r="X9">
+        <v>2.2335666310614521</v>
+      </c>
+      <c r="Y9">
+        <v>0.61738077319007956</v>
+      </c>
+      <c r="Z9">
+        <v>0.54354051644110901</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <v>53.821832368792123</v>
+      </c>
+      <c r="AD9">
+        <v>2.817867703717396</v>
+      </c>
+      <c r="AE9">
+        <v>0.53821832368792122</v>
+      </c>
+      <c r="AF9">
+        <v>0.48175745130063902</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>46.832325539148258</v>
+      </c>
+      <c r="AJ9">
+        <v>8.2945284551962679</v>
+      </c>
+      <c r="AK9">
+        <v>0.46832325539148262</v>
+      </c>
+      <c r="AL9">
+        <v>0.35655813248629659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>72.550195070891618</v>
+      </c>
+      <c r="F10">
+        <v>1.569144308140191</v>
+      </c>
+      <c r="G10">
+        <v>0.72550195070891621</v>
+      </c>
+      <c r="H10">
+        <v>0.69919857158585363</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>65.393991297502566</v>
+      </c>
+      <c r="L10">
+        <v>2.4764166678612431</v>
+      </c>
+      <c r="M10">
+        <v>0.65393991297502574</v>
+      </c>
+      <c r="N10">
+        <v>0.60723177689522501</v>
+      </c>
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>45.242346387079472</v>
+      </c>
+      <c r="R10">
+        <v>6.745510484590878</v>
+      </c>
+      <c r="S10">
+        <v>0.45242346387079468</v>
+      </c>
+      <c r="T10">
+        <v>0.33775041316841969</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10">
+        <v>44.028495056185598</v>
+      </c>
+      <c r="X10">
+        <v>6.6246597312558926</v>
+      </c>
+      <c r="Y10">
+        <v>0.44028495056185613</v>
+      </c>
+      <c r="Z10">
+        <v>0.33761774317488258</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10">
+        <v>60.523447434666387</v>
+      </c>
+      <c r="AD10">
+        <v>11.39795744409723</v>
+      </c>
+      <c r="AE10">
+        <v>0.60523447434666389</v>
+      </c>
+      <c r="AF10">
+        <v>0.54144301159066699</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI10">
+        <v>51.373454787671179</v>
+      </c>
+      <c r="AJ10">
+        <v>2.859824517170515</v>
+      </c>
+      <c r="AK10">
+        <v>0.51373454787671169</v>
+      </c>
+      <c r="AL10">
+        <v>0.44988552883141081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>81.254509122051232</v>
+      </c>
+      <c r="F11">
+        <v>1.054199706686995</v>
+      </c>
+      <c r="G11">
+        <v>0.81254509122051233</v>
+      </c>
+      <c r="H11">
+        <v>0.78307026027813009</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>77.655689063054183</v>
+      </c>
+      <c r="L11">
+        <v>1.688688048220865</v>
+      </c>
+      <c r="M11">
+        <v>0.77655689063054179</v>
+      </c>
+      <c r="N11">
+        <v>0.74688416418501702</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>63.930137803960243</v>
+      </c>
+      <c r="R11">
+        <v>5.1906117348213829</v>
+      </c>
+      <c r="S11">
+        <v>0.63930137803960241</v>
+      </c>
+      <c r="T11">
+        <v>0.56278804058822351</v>
+      </c>
+      <c r="V11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11">
+        <v>63.198989610636772</v>
+      </c>
+      <c r="X11">
+        <v>3.6282784492908831</v>
+      </c>
+      <c r="Y11">
+        <v>0.63198989610636769</v>
+      </c>
+      <c r="Z11">
+        <v>0.57812969609274834</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11">
+        <v>60.653033330738147</v>
+      </c>
+      <c r="AD11">
+        <v>2.7984748258759109</v>
+      </c>
+      <c r="AE11">
+        <v>0.6065303333073816</v>
+      </c>
+      <c r="AF11">
+        <v>0.548677749847861</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11">
+        <v>76.65896763812836</v>
+      </c>
+      <c r="AJ11">
+        <v>1.167313408900865</v>
+      </c>
+      <c r="AK11">
+        <v>0.76658967638128361</v>
+      </c>
+      <c r="AL11">
+        <v>0.75115429846164383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>82.838605870292994</v>
+      </c>
+      <c r="F12">
+        <v>0.51836631045249915</v>
+      </c>
+      <c r="G12">
+        <v>0.82838605870292992</v>
+      </c>
+      <c r="H12">
+        <v>0.83090983846868771</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>82.657635446673424</v>
+      </c>
+      <c r="L12">
+        <v>1.2329368171416719</v>
+      </c>
+      <c r="M12">
+        <v>0.82657635446673416</v>
+      </c>
+      <c r="N12">
+        <v>0.80879109902388235</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>69.448957170909779</v>
+      </c>
+      <c r="R12">
+        <v>1.750920608361245</v>
+      </c>
+      <c r="S12">
+        <v>0.69448957170909786</v>
+      </c>
+      <c r="T12">
+        <v>0.66292497906471382</v>
+      </c>
+      <c r="V12" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12">
+        <v>85.254889748181213</v>
+      </c>
+      <c r="X12">
+        <v>0.43509901039942628</v>
+      </c>
+      <c r="Y12">
+        <v>0.85254889748181206</v>
+      </c>
+      <c r="Z12">
+        <v>0.85058755071845682</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12">
+        <v>71.19257086999022</v>
+      </c>
+      <c r="AD12">
+        <v>2.0179851419941</v>
+      </c>
+      <c r="AE12">
+        <v>0.71192570869990224</v>
+      </c>
+      <c r="AF12">
+        <v>0.67448347964870081</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI12">
+        <v>70.661943442417311</v>
+      </c>
+      <c r="AJ12">
+        <v>2.4778988691500712</v>
+      </c>
+      <c r="AK12">
+        <v>0.70661943442417319</v>
+      </c>
+      <c r="AL12">
+        <v>0.64946441925259635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>89.563231515843569</v>
+      </c>
+      <c r="F13">
+        <v>0.34715204322692439</v>
+      </c>
+      <c r="G13">
+        <v>0.89563231515843567</v>
+      </c>
+      <c r="H13">
+        <v>0.89415016389273005</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>89.824046920821118</v>
+      </c>
+      <c r="L13">
+        <v>0.40472469523899313</v>
+      </c>
+      <c r="M13">
+        <v>0.8982404692082111</v>
+      </c>
+      <c r="N13">
+        <v>0.89432566868456043</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <v>88.940648275504117</v>
+      </c>
+      <c r="R13">
+        <v>0.50756571184732979</v>
+      </c>
+      <c r="S13">
+        <v>0.88940648275504119</v>
+      </c>
+      <c r="T13">
+        <v>0.88139450793579643</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>80.927516674019671</v>
+      </c>
+      <c r="X13">
+        <v>1.129709282383313</v>
+      </c>
+      <c r="Y13">
+        <v>0.80927516674019662</v>
+      </c>
+      <c r="Z13">
+        <v>0.78630943441099055</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13">
+        <v>79.884082042232194</v>
+      </c>
+      <c r="AD13">
+        <v>1.1567812887692079</v>
+      </c>
+      <c r="AE13">
+        <v>0.79884082042232196</v>
+      </c>
+      <c r="AF13">
+        <v>0.7853826050469459</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI13">
+        <v>82.598811408403179</v>
+      </c>
+      <c r="AJ13">
+        <v>1.86244145611506</v>
+      </c>
+      <c r="AK13">
+        <v>0.82598811408403194</v>
+      </c>
+      <c r="AL13">
+        <v>0.79155354671307809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>71.271031756330075</v>
+      </c>
+      <c r="F14">
+        <v>1.556572470158911</v>
+      </c>
+      <c r="G14">
+        <v>0.71271031756330072</v>
+      </c>
+      <c r="H14">
+        <v>0.68036488274965223</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>79.209422226835869</v>
+      </c>
+      <c r="L14">
+        <v>0.88510653943133855</v>
+      </c>
+      <c r="M14">
+        <v>0.79209422226835868</v>
+      </c>
+      <c r="N14">
+        <v>0.78229210056891052</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>61.039282346733103</v>
+      </c>
+      <c r="R14">
+        <v>2.6928286261324201</v>
+      </c>
+      <c r="S14">
+        <v>0.61039282346733104</v>
+      </c>
+      <c r="T14">
+        <v>0.52522860423277984</v>
+      </c>
+      <c r="V14" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>63.125373056860347</v>
+      </c>
+      <c r="X14">
+        <v>1.801267114465009</v>
+      </c>
+      <c r="Y14">
+        <v>0.63125373056860357</v>
+      </c>
+      <c r="Z14">
+        <v>0.5694645343228244</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC14">
+        <v>54.616475921071981</v>
+      </c>
+      <c r="AD14">
+        <v>5.1934041883296969</v>
+      </c>
+      <c r="AE14">
+        <v>0.54616475921071983</v>
+      </c>
+      <c r="AF14">
+        <v>0.44787747093340619</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI14">
+        <v>64.735335080753288</v>
+      </c>
+      <c r="AJ14">
+        <v>1.6732687439459071</v>
+      </c>
+      <c r="AK14">
+        <v>0.64735335080753287</v>
+      </c>
+      <c r="AL14">
+        <v>0.61479265326442345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>61.72250625005406</v>
+      </c>
+      <c r="F15">
+        <v>4.1755154046327716</v>
+      </c>
+      <c r="G15">
+        <v>0.61722506250054066</v>
+      </c>
+      <c r="H15">
+        <v>0.54157842897064346</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>71.685741226135178</v>
+      </c>
+      <c r="L15">
+        <v>1.53239366284544</v>
+      </c>
+      <c r="M15">
+        <v>0.71685741226135169</v>
+      </c>
+      <c r="N15">
+        <v>0.6862153393864141</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15">
+        <v>67.285703163522172</v>
+      </c>
+      <c r="R15">
+        <v>3.190372479514918</v>
+      </c>
+      <c r="S15">
+        <v>0.67285703163522181</v>
+      </c>
+      <c r="T15">
+        <v>0.61801266467133453</v>
+      </c>
+      <c r="V15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15">
+        <v>77.876192700628891</v>
+      </c>
+      <c r="X15">
+        <v>0.73619122326684494</v>
+      </c>
+      <c r="Y15">
+        <v>0.77876192700628899</v>
+      </c>
+      <c r="Z15">
+        <v>0.76681506855841342</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC15">
+        <v>69.605186896080426</v>
+      </c>
+      <c r="AD15">
+        <v>1.696572394665175</v>
+      </c>
+      <c r="AE15">
+        <v>0.69605186896080418</v>
+      </c>
+      <c r="AF15">
+        <v>0.66398393729655436</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI15">
+        <v>63.02199846019429</v>
+      </c>
+      <c r="AJ15">
+        <v>2.8160367001063911</v>
+      </c>
+      <c r="AK15">
+        <v>0.63021998460194284</v>
+      </c>
+      <c r="AL15">
+        <v>0.57939687994486566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>80.509260460730644</v>
+      </c>
+      <c r="F16">
+        <v>1.8742225130752099</v>
+      </c>
+      <c r="G16">
+        <v>0.80509260460730625</v>
+      </c>
+      <c r="H16">
+        <v>0.78083007915937752</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>73.164992776754133</v>
+      </c>
+      <c r="L16">
+        <v>2.7186444764956832</v>
+      </c>
+      <c r="M16">
+        <v>0.73164992776754123</v>
+      </c>
+      <c r="N16">
+        <v>0.68585349768591564</v>
+      </c>
+      <c r="P16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16">
+        <v>76.467529995934228</v>
+      </c>
+      <c r="R16">
+        <v>0.80518605061030635</v>
+      </c>
+      <c r="S16">
+        <v>0.76467529995934225</v>
+      </c>
+      <c r="T16">
+        <v>0.74495688320215181</v>
+      </c>
+      <c r="V16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16">
+        <v>82.41083400375436</v>
+      </c>
+      <c r="X16">
+        <v>0.63551565080512473</v>
+      </c>
+      <c r="Y16">
+        <v>0.82410834003754352</v>
+      </c>
+      <c r="Z16">
+        <v>0.81913435906867904</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC16">
+        <v>74.240434605835688</v>
+      </c>
+      <c r="AD16">
+        <v>1.0118145495759869</v>
+      </c>
+      <c r="AE16">
+        <v>0.74240434605835692</v>
+      </c>
+      <c r="AF16">
+        <v>0.71878152627267922</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI16">
+        <v>81.951660481492056</v>
+      </c>
+      <c r="AJ16">
+        <v>0.80159868260185851</v>
+      </c>
+      <c r="AK16">
+        <v>0.81951660481492061</v>
+      </c>
+      <c r="AL16">
+        <v>0.79768627490961075</v>
+      </c>
+    </row>
+    <row r="17" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>81.652782463516118</v>
+      </c>
+      <c r="F17">
+        <v>0.66045895234386387</v>
+      </c>
+      <c r="G17">
+        <v>0.81652782463516116</v>
+      </c>
+      <c r="H17">
+        <v>0.81355232868855398</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>83.470531752004774</v>
+      </c>
+      <c r="L17">
+        <v>0.56909079357828884</v>
+      </c>
+      <c r="M17">
+        <v>0.83470531752004773</v>
+      </c>
+      <c r="N17">
+        <v>0.83169917026601414</v>
+      </c>
+      <c r="P17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <v>80.451128469969461</v>
+      </c>
+      <c r="R17">
+        <v>0.84374403789988717</v>
+      </c>
+      <c r="S17">
+        <v>0.80451128469969468</v>
+      </c>
+      <c r="T17">
+        <v>0.78060780233527804</v>
+      </c>
+      <c r="V17" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17">
+        <v>85.642522859194287</v>
+      </c>
+      <c r="X17">
+        <v>0.4853228713185066</v>
+      </c>
+      <c r="Y17">
+        <v>0.85642522859194281</v>
+      </c>
+      <c r="Z17">
+        <v>0.85731790518111473</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC17">
+        <v>79.028970838848096</v>
+      </c>
+      <c r="AD17">
+        <v>1.156320011910672</v>
+      </c>
+      <c r="AE17">
+        <v>0.79028970838848089</v>
+      </c>
+      <c r="AF17">
+        <v>0.77753299591498259</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI17">
+        <v>59.014870370850957</v>
+      </c>
+      <c r="AJ17">
+        <v>7.0296800486890181</v>
+      </c>
+      <c r="AK17">
+        <v>0.59014870370850958</v>
+      </c>
+      <c r="AL17">
+        <v>0.5406148326185487</v>
+      </c>
+    </row>
+    <row r="18" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>72.194655663111263</v>
+      </c>
+      <c r="F18">
+        <v>1.653025351312378</v>
+      </c>
+      <c r="G18">
+        <v>0.72194655663111273</v>
+      </c>
+      <c r="H18">
+        <v>0.70687391183444193</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>64.458256559312787</v>
+      </c>
+      <c r="L18">
+        <v>3.9549601398373251</v>
+      </c>
+      <c r="M18">
+        <v>0.64458256559312788</v>
+      </c>
+      <c r="N18">
+        <v>0.59549749438363997</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18">
+        <v>56.06683448818761</v>
+      </c>
+      <c r="R18">
+        <v>3.431420969427855</v>
+      </c>
+      <c r="S18">
+        <v>0.56066834488187622</v>
+      </c>
+      <c r="T18">
+        <v>0.526610649421143</v>
+      </c>
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18">
+        <v>67.905950743518545</v>
+      </c>
+      <c r="X18">
+        <v>1.907177109217931</v>
+      </c>
+      <c r="Y18">
+        <v>0.67905950743518539</v>
+      </c>
+      <c r="Z18">
+        <v>0.65084369091338901</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18">
+        <v>64.135329890396974</v>
+      </c>
+      <c r="AD18">
+        <v>1.68409075601618</v>
+      </c>
+      <c r="AE18">
+        <v>0.64135329890396975</v>
+      </c>
+      <c r="AF18">
+        <v>0.63672088698673379</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI18">
+        <v>72.449761676139062</v>
+      </c>
+      <c r="AJ18">
+        <v>1.1524374952984751</v>
+      </c>
+      <c r="AK18">
+        <v>0.72449761676139068</v>
+      </c>
+      <c r="AL18">
+        <v>0.70710701381478613</v>
+      </c>
+    </row>
+    <row r="19" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>71.950881928044367</v>
+      </c>
+      <c r="F19">
+        <v>2.9744938802148249</v>
+      </c>
+      <c r="G19">
+        <v>0.71950881928044352</v>
+      </c>
+      <c r="H19">
+        <v>0.68220800817746774</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>73.129611847853354</v>
+      </c>
+      <c r="L19">
+        <v>3.24314178662953</v>
+      </c>
+      <c r="M19">
+        <v>0.7312961184785336</v>
+      </c>
+      <c r="N19">
+        <v>0.69462780302500571</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>81.246204551942498</v>
+      </c>
+      <c r="R19">
+        <v>0.80025550432517689</v>
+      </c>
+      <c r="S19">
+        <v>0.81246204551942491</v>
+      </c>
+      <c r="T19">
+        <v>0.80088631202462968</v>
+      </c>
+      <c r="V19" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>80.886858882862299</v>
+      </c>
+      <c r="X19">
+        <v>1.373856830312798</v>
+      </c>
+      <c r="Y19">
+        <v>0.808868588828623</v>
+      </c>
+      <c r="Z19">
+        <v>0.7758612269075279</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19">
+        <v>85.31388679832871</v>
+      </c>
+      <c r="AD19">
+        <v>1.100159122078423</v>
+      </c>
+      <c r="AE19">
+        <v>0.85313886798328709</v>
+      </c>
+      <c r="AF19">
+        <v>0.82376232663774807</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI19">
+        <v>73.523040856754818</v>
+      </c>
+      <c r="AJ19">
+        <v>2.3791233061924228</v>
+      </c>
+      <c r="AK19">
+        <v>0.73523040856754818</v>
+      </c>
+      <c r="AL19">
+        <v>0.688068953077556</v>
+      </c>
+    </row>
+    <row r="20" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>81.67484147786746</v>
+      </c>
+      <c r="F20">
+        <v>1.5205251323045861</v>
+      </c>
+      <c r="G20">
+        <v>0.81674841477867444</v>
+      </c>
+      <c r="H20">
+        <v>0.79642816693304619</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20">
+        <v>91.537037517625578</v>
+      </c>
+      <c r="L20">
+        <v>0.28262625252802231</v>
+      </c>
+      <c r="M20">
+        <v>0.91537037517625586</v>
+      </c>
+      <c r="N20">
+        <v>0.91439554004743739</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20">
+        <v>83.429181913338354</v>
+      </c>
+      <c r="R20">
+        <v>1.6492829914466329</v>
+      </c>
+      <c r="S20">
+        <v>0.83429181913338346</v>
+      </c>
+      <c r="T20">
+        <v>0.81132405426226362</v>
+      </c>
+      <c r="V20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20">
+        <v>89.420064187406467</v>
+      </c>
+      <c r="X20">
+        <v>0.48065464561950649</v>
+      </c>
+      <c r="Y20">
+        <v>0.89420064187406467</v>
+      </c>
+      <c r="Z20">
+        <v>0.89013751423158427</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC20">
+        <v>70.696805335686292</v>
+      </c>
+      <c r="AD20">
+        <v>4.7476846008521534</v>
+      </c>
+      <c r="AE20">
+        <v>0.70696805335686297</v>
+      </c>
+      <c r="AF20">
+        <v>0.64458715739741579</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI20">
+        <v>81.951919999307961</v>
+      </c>
+      <c r="AJ20">
+        <v>1.328221526055529</v>
+      </c>
+      <c r="AK20">
+        <v>0.81951919999307954</v>
+      </c>
+      <c r="AL20">
+        <v>0.78041776379596839</v>
+      </c>
+    </row>
+    <row r="21" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>84.01698976634745</v>
+      </c>
+      <c r="F21">
+        <v>0.85522080927560928</v>
+      </c>
+      <c r="G21">
+        <v>0.84016989766347461</v>
+      </c>
+      <c r="H21">
+        <v>0.82940777913188235</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>87.527487262000534</v>
+      </c>
+      <c r="L21">
+        <v>0.67287297450887606</v>
+      </c>
+      <c r="M21">
+        <v>0.87527487262000536</v>
+      </c>
+      <c r="N21">
+        <v>0.85978734531429224</v>
+      </c>
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21">
+        <v>86.814678327667195</v>
+      </c>
+      <c r="R21">
+        <v>0.58272501235478558</v>
+      </c>
+      <c r="S21">
+        <v>0.86814678327667194</v>
+      </c>
+      <c r="T21">
+        <v>0.86497463038913835</v>
+      </c>
+      <c r="V21" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21">
+        <v>80.7987093313956</v>
+      </c>
+      <c r="X21">
+        <v>0.95571905834100712</v>
+      </c>
+      <c r="Y21">
+        <v>0.80798709331395602</v>
+      </c>
+      <c r="Z21">
+        <v>0.78527380529500268</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21">
+        <v>63.378575939238218</v>
+      </c>
+      <c r="AD21">
+        <v>2.3755321566577172</v>
+      </c>
+      <c r="AE21">
+        <v>0.63378575939238235</v>
+      </c>
+      <c r="AF21">
+        <v>0.58986598098859244</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI21">
+        <v>84.821927525324625</v>
+      </c>
+      <c r="AJ21">
+        <v>0.85206242584659631</v>
+      </c>
+      <c r="AK21">
+        <v>0.84821927525324603</v>
+      </c>
+      <c r="AL21">
+        <v>0.82936287596222691</v>
+      </c>
+    </row>
+    <row r="22" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>86.613552020346191</v>
+      </c>
+      <c r="F22">
+        <v>0.84774992255267223</v>
+      </c>
+      <c r="G22">
+        <v>0.86613552020346207</v>
+      </c>
+      <c r="H22">
+        <v>0.84701038278137764</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22">
+        <v>74.14242337736485</v>
+      </c>
+      <c r="L22">
+        <v>1.718887709765841</v>
+      </c>
+      <c r="M22">
+        <v>0.74142423377364852</v>
+      </c>
+      <c r="N22">
+        <v>0.695536403846306</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22">
+        <v>84.707912698206741</v>
+      </c>
+      <c r="R22">
+        <v>0.65868478581687673</v>
+      </c>
+      <c r="S22">
+        <v>0.84707912698206722</v>
+      </c>
+      <c r="T22">
+        <v>0.82499437435768141</v>
+      </c>
+      <c r="V22" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22">
+        <v>86.211991453213258</v>
+      </c>
+      <c r="X22">
+        <v>0.72120984244141551</v>
+      </c>
+      <c r="Y22">
+        <v>0.86211991453213277</v>
+      </c>
+      <c r="Z22">
+        <v>0.83778006698204499</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22">
+        <v>73.33099767299025</v>
+      </c>
+      <c r="AD22">
+        <v>2.444129394362144</v>
+      </c>
+      <c r="AE22">
+        <v>0.7333099767299025</v>
+      </c>
+      <c r="AF22">
+        <v>0.68769859459016203</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI22">
+        <v>80.861512642842939</v>
+      </c>
+      <c r="AJ22">
+        <v>1.850171970811336</v>
+      </c>
+      <c r="AK22">
+        <v>0.80861512642842936</v>
+      </c>
+      <c r="AL22">
+        <v>0.78075325602337631</v>
+      </c>
+    </row>
+    <row r="23" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>81.718007941245176</v>
+      </c>
+      <c r="F23">
+        <v>1.1684349441756861</v>
+      </c>
+      <c r="G23">
+        <v>0.81718007941245163</v>
+      </c>
+      <c r="H23">
+        <v>0.78754980139429576</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>89.621190494727472</v>
+      </c>
+      <c r="L23">
+        <v>0.52598324678553277</v>
+      </c>
+      <c r="M23">
+        <v>0.89621190494727476</v>
+      </c>
+      <c r="N23">
+        <v>0.89133925510316114</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>90.857706381543096</v>
+      </c>
+      <c r="R23">
+        <v>0.40157743977282118</v>
+      </c>
+      <c r="S23">
+        <v>0.90857706381543102</v>
+      </c>
+      <c r="T23">
+        <v>0.90567562071749952</v>
+      </c>
+      <c r="V23" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23">
+        <v>92.508931738163824</v>
+      </c>
+      <c r="X23">
+        <v>0.31474764357277912</v>
+      </c>
+      <c r="Y23">
+        <v>0.92508931738163835</v>
+      </c>
+      <c r="Z23">
+        <v>0.92331005594046722</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC23">
+        <v>76.310867741070425</v>
+      </c>
+      <c r="AD23">
+        <v>1.162875557889163</v>
+      </c>
+      <c r="AE23">
+        <v>0.76310867741070421</v>
+      </c>
+      <c r="AF23">
+        <v>0.73777901086899933</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI23">
+        <v>60.519122137734747</v>
+      </c>
+      <c r="AJ23">
+        <v>6.5558015202303981</v>
+      </c>
+      <c r="AK23">
+        <v>0.60519122137734749</v>
+      </c>
+      <c r="AL23">
+        <v>0.53876321404756911</v>
+      </c>
+    </row>
+    <row r="24" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>75.170373446137077</v>
+      </c>
+      <c r="F24">
+        <v>1.442286452852811</v>
+      </c>
+      <c r="G24">
+        <v>0.75170373446137073</v>
+      </c>
+      <c r="H24">
+        <v>0.73277138806817965</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>83.323039126636033</v>
+      </c>
+      <c r="L24">
+        <v>0.77585093412950912</v>
+      </c>
+      <c r="M24">
+        <v>0.83323039126636045</v>
+      </c>
+      <c r="N24">
+        <v>0.83149966673701781</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>75.670810301127176</v>
+      </c>
+      <c r="R24">
+        <v>1.8224452044193939</v>
+      </c>
+      <c r="S24">
+        <v>0.75670810301127178</v>
+      </c>
+      <c r="T24">
+        <v>0.72169098392896913</v>
+      </c>
+      <c r="V24" t="s">
+        <v>25</v>
+      </c>
+      <c r="W24">
+        <v>73.118539087708371</v>
+      </c>
+      <c r="X24">
+        <v>1.4517886082705129</v>
+      </c>
+      <c r="Y24">
+        <v>0.73118539087708379</v>
+      </c>
+      <c r="Z24">
+        <v>0.70932829104337958</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24">
+        <v>80.253289388316517</v>
+      </c>
+      <c r="AD24">
+        <v>0.89313284387608294</v>
+      </c>
+      <c r="AE24">
+        <v>0.80253289388316507</v>
+      </c>
+      <c r="AF24">
+        <v>0.80044792749529936</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI24">
+        <v>74.969593162570604</v>
+      </c>
+      <c r="AJ24">
+        <v>1.8290673345302291</v>
+      </c>
+      <c r="AK24">
+        <v>0.74969593162570614</v>
+      </c>
+      <c r="AL24">
+        <v>0.7233382864497333</v>
+      </c>
+    </row>
+    <row r="25" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>85.340790145243474</v>
+      </c>
+      <c r="F25">
+        <v>0.45845098687321079</v>
+      </c>
+      <c r="G25">
+        <v>0.85340790145243461</v>
+      </c>
+      <c r="H25">
+        <v>0.84627109934025291</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25">
+        <v>91.358662272164992</v>
+      </c>
+      <c r="L25">
+        <v>0.28531586329054998</v>
+      </c>
+      <c r="M25">
+        <v>0.91358662272164981</v>
+      </c>
+      <c r="N25">
+        <v>0.90981054404020312</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25">
+        <v>82.19690481751573</v>
+      </c>
+      <c r="R25">
+        <v>0.77967806029676745</v>
+      </c>
+      <c r="S25">
+        <v>0.82196904817515715</v>
+      </c>
+      <c r="T25">
+        <v>0.78861268142314245</v>
+      </c>
+      <c r="V25" t="s">
+        <v>26</v>
+      </c>
+      <c r="W25">
+        <v>82.125969947836921</v>
+      </c>
+      <c r="X25">
+        <v>1.6846716839867379</v>
+      </c>
+      <c r="Y25">
+        <v>0.82125969947836919</v>
+      </c>
+      <c r="Z25">
+        <v>0.78481082561258708</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC25">
+        <v>84.928848865474606</v>
+      </c>
+      <c r="AD25">
+        <v>0.59183171584760808</v>
+      </c>
+      <c r="AE25">
+        <v>0.84928848865474615</v>
+      </c>
+      <c r="AF25">
+        <v>0.82961274691533526</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI25">
+        <v>84.530402512132454</v>
+      </c>
+      <c r="AJ25">
+        <v>0.62539974461308023</v>
+      </c>
+      <c r="AK25">
+        <v>0.84530402512132452</v>
+      </c>
+      <c r="AL25">
+        <v>0.83246781105298451</v>
+      </c>
+    </row>
+    <row r="26" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>92.923987231723459</v>
+      </c>
+      <c r="F26">
+        <v>0.2080748306225359</v>
+      </c>
+      <c r="G26">
+        <v>0.92923987231723459</v>
+      </c>
+      <c r="H26">
+        <v>0.92641277256494836</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>93.27520134257216</v>
+      </c>
+      <c r="L26">
+        <v>0.20998118863448101</v>
+      </c>
+      <c r="M26">
+        <v>0.93275201342572167</v>
+      </c>
+      <c r="N26">
+        <v>0.93171474731238924</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <v>84.314570195243903</v>
+      </c>
+      <c r="R26">
+        <v>1.141032243995511</v>
+      </c>
+      <c r="S26">
+        <v>0.8431457019524391</v>
+      </c>
+      <c r="T26">
+        <v>0.8186757557502069</v>
+      </c>
+      <c r="V26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26">
+        <v>93.09994031090234</v>
+      </c>
+      <c r="X26">
+        <v>0.18596705138417441</v>
+      </c>
+      <c r="Y26">
+        <v>0.9309994031090234</v>
+      </c>
+      <c r="Z26">
+        <v>0.92966619362445857</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC26">
+        <v>92.419398091678985</v>
+      </c>
+      <c r="AD26">
+        <v>0.40145018588372677</v>
+      </c>
+      <c r="AE26">
+        <v>0.92419398091678995</v>
+      </c>
+      <c r="AF26">
+        <v>0.91899894309568952</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI26">
+        <v>81.596380591527605</v>
+      </c>
+      <c r="AJ26">
+        <v>1.207368070850404</v>
+      </c>
+      <c r="AK26">
+        <v>0.81596380591527606</v>
+      </c>
+      <c r="AL26">
+        <v>0.77650935435675905</v>
+      </c>
+    </row>
+    <row r="27" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>94.602461959013482</v>
+      </c>
+      <c r="F27">
+        <v>0.15430560393089929</v>
+      </c>
+      <c r="G27">
+        <v>0.94602461959013484</v>
+      </c>
+      <c r="H27">
+        <v>0.94592374220514464</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27">
+        <v>94.307303696398748</v>
+      </c>
+      <c r="L27">
+        <v>0.2446328761737126</v>
+      </c>
+      <c r="M27">
+        <v>0.9430730369639877</v>
+      </c>
+      <c r="N27">
+        <v>0.94281895375902958</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27">
+        <v>92.037301360738411</v>
+      </c>
+      <c r="R27">
+        <v>0.3338276133637284</v>
+      </c>
+      <c r="S27">
+        <v>0.92037301360738422</v>
+      </c>
+      <c r="T27">
+        <v>0.91708318438733816</v>
+      </c>
+      <c r="V27" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27">
+        <v>93.924341906071859</v>
+      </c>
+      <c r="X27">
+        <v>0.21227790192591939</v>
+      </c>
+      <c r="Y27">
+        <v>0.93924341906071851</v>
+      </c>
+      <c r="Z27">
+        <v>0.93944318892550582</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC27">
+        <v>82.863087050926055</v>
+      </c>
+      <c r="AD27">
+        <v>0.73152537583165622</v>
+      </c>
+      <c r="AE27">
+        <v>0.82863087050926043</v>
+      </c>
+      <c r="AF27">
+        <v>0.81512583211357525</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI27">
+        <v>80.003979273177109</v>
+      </c>
+      <c r="AJ27">
+        <v>5.0302732801354111</v>
+      </c>
+      <c r="AK27">
+        <v>0.80003979273177106</v>
+      </c>
+      <c r="AL27">
+        <v>0.75292438282480478</v>
+      </c>
+    </row>
+    <row r="28" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>89.740914713795107</v>
+      </c>
+      <c r="F28">
+        <v>0.30332776320095972</v>
+      </c>
+      <c r="G28">
+        <v>0.89740914713795095</v>
+      </c>
+      <c r="H28">
+        <v>0.89162221543279629</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28">
+        <v>76.499969722921477</v>
+      </c>
+      <c r="L28">
+        <v>1.402598185521909</v>
+      </c>
+      <c r="M28">
+        <v>0.76499969722921479</v>
+      </c>
+      <c r="N28">
+        <v>0.7222338944138802</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>68.629918943935508</v>
+      </c>
+      <c r="R28">
+        <v>2.1945861187078588</v>
+      </c>
+      <c r="S28">
+        <v>0.68629918943935508</v>
+      </c>
+      <c r="T28">
+        <v>0.61123368345014262</v>
+      </c>
+      <c r="V28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W28">
+        <v>87.562868190901298</v>
+      </c>
+      <c r="X28">
+        <v>0.38100426392707681</v>
+      </c>
+      <c r="Y28">
+        <v>0.875628681909013</v>
+      </c>
+      <c r="Z28">
+        <v>0.86415415866172496</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC28">
+        <v>73.030303030303031</v>
+      </c>
+      <c r="AD28">
+        <v>2.3320162837185232</v>
+      </c>
+      <c r="AE28">
+        <v>0.73030303030303023</v>
+      </c>
+      <c r="AF28">
+        <v>0.68700914843148175</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI28">
+        <v>59.437538387010271</v>
+      </c>
+      <c r="AJ28">
+        <v>3.86769099628015</v>
+      </c>
+      <c r="AK28">
+        <v>0.59437538387010269</v>
+      </c>
+      <c r="AL28">
+        <v>0.52557618856328203</v>
+      </c>
+    </row>
+    <row r="29" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>83.482037041842915</v>
+      </c>
+      <c r="F29">
+        <v>0.66229056725462476</v>
+      </c>
+      <c r="G29">
+        <v>0.83482037041842927</v>
+      </c>
+      <c r="H29">
+        <v>0.83300301725612846</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29">
+        <v>87.642021124750215</v>
+      </c>
+      <c r="L29">
+        <v>0.44035401882629233</v>
+      </c>
+      <c r="M29">
+        <v>0.87642021124750225</v>
+      </c>
+      <c r="N29">
+        <v>0.86751719949445594</v>
+      </c>
+      <c r="P29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29">
+        <v>76.131627436223496</v>
+      </c>
+      <c r="R29">
+        <v>1.880996495834518</v>
+      </c>
+      <c r="S29">
+        <v>0.76131627436223492</v>
+      </c>
+      <c r="T29">
+        <v>0.73746675469161382</v>
+      </c>
+      <c r="V29" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29">
+        <v>83.070441785828592</v>
+      </c>
+      <c r="X29">
+        <v>0.78216838778053743</v>
+      </c>
+      <c r="Y29">
+        <v>0.83070441785828597</v>
+      </c>
+      <c r="Z29">
+        <v>0.83168039785130343</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC29">
+        <v>83.458420920596197</v>
+      </c>
+      <c r="AD29">
+        <v>0.84818921369345246</v>
+      </c>
+      <c r="AE29">
+        <v>0.83458420920596199</v>
+      </c>
+      <c r="AF29">
+        <v>0.81916465145658268</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI29">
+        <v>75.93716208617721</v>
+      </c>
+      <c r="AJ29">
+        <v>2.107993115843843</v>
+      </c>
+      <c r="AK29">
+        <v>0.75937162086177212</v>
+      </c>
+      <c r="AL29">
+        <v>0.71447517589983234</v>
+      </c>
+    </row>
+    <row r="30" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>82.368186576008441</v>
+      </c>
+      <c r="F30">
+        <v>0.89266394139461536</v>
+      </c>
+      <c r="G30">
+        <v>0.8236818657600844</v>
+      </c>
+      <c r="H30">
+        <v>0.80957852296078392</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30">
+        <v>90.183046566146771</v>
+      </c>
+      <c r="L30">
+        <v>0.524725295715325</v>
+      </c>
+      <c r="M30">
+        <v>0.90183046566146763</v>
+      </c>
+      <c r="N30">
+        <v>0.88770091692291619</v>
+      </c>
+      <c r="P30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30">
+        <v>77.019178366594872</v>
+      </c>
+      <c r="R30">
+        <v>1.1123147762451779</v>
+      </c>
+      <c r="S30">
+        <v>0.77019178366594865</v>
+      </c>
+      <c r="T30">
+        <v>0.75491492297135632</v>
+      </c>
+      <c r="V30" t="s">
+        <v>31</v>
+      </c>
+      <c r="W30">
+        <v>89.284682393446317</v>
+      </c>
+      <c r="X30">
+        <v>0.29225868958771267</v>
+      </c>
+      <c r="Y30">
+        <v>0.89284682393446313</v>
+      </c>
+      <c r="Z30">
+        <v>0.89133408996158781</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC30">
+        <v>80.543862836183706</v>
+      </c>
+      <c r="AD30">
+        <v>0.78395528307106965</v>
+      </c>
+      <c r="AE30">
+        <v>0.80543862836183711</v>
+      </c>
+      <c r="AF30">
+        <v>0.79163688270960297</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI30">
+        <v>86.809401465410602</v>
+      </c>
+      <c r="AJ30">
+        <v>0.54055211295296135</v>
+      </c>
+      <c r="AK30">
+        <v>0.86809401465410596</v>
+      </c>
+      <c r="AL30">
+        <v>0.86669437810052652</v>
+      </c>
+    </row>
+    <row r="31" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>79.23961279941868</v>
+      </c>
+      <c r="F31">
+        <v>1.301270894361672</v>
+      </c>
+      <c r="G31">
+        <v>0.79239612799418679</v>
+      </c>
+      <c r="H31">
+        <v>0.7649280409808249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31">
+        <v>91.241360219379061</v>
+      </c>
+      <c r="L31">
+        <v>0.26759935144189823</v>
+      </c>
+      <c r="M31">
+        <v>0.91241360219379053</v>
+      </c>
+      <c r="N31">
+        <v>0.91038659483916129</v>
+      </c>
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31">
+        <v>86.055329198349469</v>
+      </c>
+      <c r="R31">
+        <v>0.53464088529556952</v>
+      </c>
+      <c r="S31">
+        <v>0.86055329198349462</v>
+      </c>
+      <c r="T31">
+        <v>0.85525633195353734</v>
+      </c>
+      <c r="V31" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31">
+        <v>72.600368515298584</v>
+      </c>
+      <c r="X31">
+        <v>3.28950143929795</v>
+      </c>
+      <c r="Y31">
+        <v>0.72600368515298574</v>
+      </c>
+      <c r="Z31">
+        <v>0.68611110532021513</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC31">
+        <v>59.486500748276363</v>
+      </c>
+      <c r="AD31">
+        <v>5.9342245247253329</v>
+      </c>
+      <c r="AE31">
+        <v>0.59486500748276372</v>
+      </c>
+      <c r="AF31">
+        <v>0.51364878823319882</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI31">
+        <v>64.299258644105919</v>
+      </c>
+      <c r="AJ31">
+        <v>4.61863385393311</v>
+      </c>
+      <c r="AK31">
+        <v>0.64299258644105917</v>
+      </c>
+      <c r="AL31">
+        <v>0.5808737682872539</v>
+      </c>
+    </row>
+    <row r="32" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>70.67180511942145</v>
+      </c>
+      <c r="F32">
+        <v>2.4669522358104099</v>
+      </c>
+      <c r="G32">
+        <v>0.70671805119421449</v>
+      </c>
+      <c r="H32">
+        <v>0.66388641086023958</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32">
+        <v>78.69903718890302</v>
+      </c>
+      <c r="L32">
+        <v>0.88272409263687801</v>
+      </c>
+      <c r="M32">
+        <v>0.7869903718890302</v>
+      </c>
+      <c r="N32">
+        <v>0.76800654425503012</v>
+      </c>
+      <c r="P32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32">
+        <v>75.564754020363495</v>
+      </c>
+      <c r="R32">
+        <v>1.3230925723531981</v>
+      </c>
+      <c r="S32">
+        <v>0.755647540203635</v>
+      </c>
+      <c r="T32">
+        <v>0.7177047465559856</v>
+      </c>
+      <c r="V32" t="s">
+        <v>33</v>
+      </c>
+      <c r="W32">
+        <v>73.895708440384425</v>
+      </c>
+      <c r="X32">
+        <v>1.56899131234677</v>
+      </c>
+      <c r="Y32">
+        <v>0.73895708440384433</v>
+      </c>
+      <c r="Z32">
+        <v>0.71248734261008917</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC32">
+        <v>71.63331862732376</v>
+      </c>
+      <c r="AD32">
+        <v>3.59500648593521</v>
+      </c>
+      <c r="AE32">
+        <v>0.71633318627323761</v>
+      </c>
+      <c r="AF32">
+        <v>0.68989577494220833</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI32">
+        <v>48.930959610377258</v>
+      </c>
+      <c r="AJ32">
+        <v>10.61021744040074</v>
+      </c>
+      <c r="AK32">
+        <v>0.48930959610377239</v>
+      </c>
+      <c r="AL32">
+        <v>0.397818780309526</v>
+      </c>
+    </row>
+    <row r="33" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33">
+        <v>88.178011920518344</v>
+      </c>
+      <c r="F33">
+        <v>0.35649814621986792</v>
+      </c>
+      <c r="G33">
+        <v>0.88178011920518351</v>
+      </c>
+      <c r="H33">
+        <v>0.87728859532870873</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33">
+        <v>88.969108729314271</v>
+      </c>
+      <c r="L33">
+        <v>0.5301310381638662</v>
+      </c>
+      <c r="M33">
+        <v>0.88969108729314272</v>
+      </c>
+      <c r="N33">
+        <v>0.87375299029273479</v>
+      </c>
+      <c r="P33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33">
+        <v>81.309007863389823</v>
+      </c>
+      <c r="R33">
+        <v>0.68280839123654002</v>
+      </c>
+      <c r="S33">
+        <v>0.81309007863389815</v>
+      </c>
+      <c r="T33">
+        <v>0.80331784600872724</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33">
+        <v>70.043945016825404</v>
+      </c>
+      <c r="X33">
+        <v>4.333905858329187</v>
+      </c>
+      <c r="Y33">
+        <v>0.70043945016825404</v>
+      </c>
+      <c r="Z33">
+        <v>0.63468188818337334</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC33">
+        <v>82.541544477028353</v>
+      </c>
+      <c r="AD33">
+        <v>1.2131098004279921</v>
+      </c>
+      <c r="AE33">
+        <v>0.8254154447702835</v>
+      </c>
+      <c r="AF33">
+        <v>0.7955470124398083</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI33">
+        <v>90.239275426258018</v>
+      </c>
+      <c r="AJ33">
+        <v>0.3893212240509456</v>
+      </c>
+      <c r="AK33">
+        <v>0.90239275426258003</v>
+      </c>
+      <c r="AL33">
+        <v>0.90028698402350071</v>
+      </c>
+    </row>
+    <row r="34" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>88.230434519329748</v>
+      </c>
+      <c r="F34">
+        <v>0.55044390026375067</v>
+      </c>
+      <c r="G34">
+        <v>0.88230434519329748</v>
+      </c>
+      <c r="H34">
+        <v>0.87308556707364338</v>
+      </c>
+      <c r="J34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34">
+        <v>91.62328393844237</v>
+      </c>
+      <c r="L34">
+        <v>0.31411350235669788</v>
+      </c>
+      <c r="M34">
+        <v>0.91623283938442379</v>
+      </c>
+      <c r="N34">
+        <v>0.91005548343185794</v>
+      </c>
+      <c r="P34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34">
+        <v>81.299751727956121</v>
+      </c>
+      <c r="R34">
+        <v>0.86408840583753777</v>
+      </c>
+      <c r="S34">
+        <v>0.81299751727956127</v>
+      </c>
+      <c r="T34">
+        <v>0.80767733382427809</v>
+      </c>
+      <c r="V34" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34">
+        <v>84.140866270469473</v>
+      </c>
+      <c r="X34">
+        <v>0.72005672767671369</v>
+      </c>
+      <c r="Y34">
+        <v>0.84140866270469472</v>
+      </c>
+      <c r="Z34">
+        <v>0.83032104101573356</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC34">
+        <v>87.407763042932899</v>
+      </c>
+      <c r="AD34">
+        <v>0.47073882727172528</v>
+      </c>
+      <c r="AE34">
+        <v>0.87407763042932896</v>
+      </c>
+      <c r="AF34">
+        <v>0.87110235537310676</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI34">
+        <v>80.09135027119612</v>
+      </c>
+      <c r="AJ34">
+        <v>1.102536534363429</v>
+      </c>
+      <c r="AK34">
+        <v>0.80091350271196116</v>
+      </c>
+      <c r="AL34">
+        <v>0.77646470613647978</v>
+      </c>
+    </row>
+    <row r="35" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>86.189932438861931</v>
+      </c>
+      <c r="F35">
+        <v>0.50835204198947381</v>
+      </c>
+      <c r="G35">
+        <v>0.86189932438861927</v>
+      </c>
+      <c r="H35">
+        <v>0.85616206066666578</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35">
+        <v>88.569278280953981</v>
+      </c>
+      <c r="L35">
+        <v>0.40959641327695612</v>
+      </c>
+      <c r="M35">
+        <v>0.88569278280953989</v>
+      </c>
+      <c r="N35">
+        <v>0.88411804202144872</v>
+      </c>
+      <c r="P35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35">
+        <v>73.44951080891704</v>
+      </c>
+      <c r="R35">
+        <v>2.1050010538655108</v>
+      </c>
+      <c r="S35">
+        <v>0.73449510808917029</v>
+      </c>
+      <c r="T35">
+        <v>0.69761332216987504</v>
+      </c>
+      <c r="V35" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35">
+        <v>89.258817117795132</v>
+      </c>
+      <c r="X35">
+        <v>0.40425224124208542</v>
+      </c>
+      <c r="Y35">
+        <v>0.89258817117795142</v>
+      </c>
+      <c r="Z35">
+        <v>0.89096399890451949</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC35">
+        <v>69.243592072595789</v>
+      </c>
+      <c r="AD35">
+        <v>2.9798006094427052</v>
+      </c>
+      <c r="AE35">
+        <v>0.69243592072595783</v>
+      </c>
+      <c r="AF35">
+        <v>0.64930268507740085</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI35">
+        <v>71.113417936141303</v>
+      </c>
+      <c r="AJ35">
+        <v>2.613556146669449</v>
+      </c>
+      <c r="AK35">
+        <v>0.71113417936141321</v>
+      </c>
+      <c r="AL35">
+        <v>0.65747158962958985</v>
+      </c>
+    </row>
+    <row r="36" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>86.510177423680133</v>
+      </c>
+      <c r="F36">
+        <v>2.069815860882863</v>
+      </c>
+      <c r="G36">
+        <v>0.86510177423680135</v>
+      </c>
+      <c r="H36">
+        <v>0.84695108445137879</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36">
+        <v>91.710914454277287</v>
+      </c>
+      <c r="L36">
+        <v>0.51411899471881384</v>
+      </c>
+      <c r="M36">
+        <v>0.91710914454277292</v>
+      </c>
+      <c r="N36">
+        <v>0.9127185358455806</v>
+      </c>
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36">
+        <v>82.745784998140124</v>
+      </c>
+      <c r="R36">
+        <v>2.6154379503454188</v>
+      </c>
+      <c r="S36">
+        <v>0.82745784998140126</v>
+      </c>
+      <c r="T36">
+        <v>0.79384384137639574</v>
+      </c>
+      <c r="V36" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36">
+        <v>88.236143911279513</v>
+      </c>
+      <c r="X36">
+        <v>0.62115365187006921</v>
+      </c>
+      <c r="Y36">
+        <v>0.88236143911279508</v>
+      </c>
+      <c r="Z36">
+        <v>0.86641920385208682</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC36">
+        <v>92.07147120649833</v>
+      </c>
+      <c r="AD36">
+        <v>0.29452964318573632</v>
+      </c>
+      <c r="AE36">
+        <v>0.92071471206498323</v>
+      </c>
+      <c r="AF36">
+        <v>0.92010076000800223</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI36">
+        <v>87.324025294336451</v>
+      </c>
+      <c r="AJ36">
+        <v>0.55806833579894355</v>
+      </c>
+      <c r="AK36">
+        <v>0.8732402529433646</v>
+      </c>
+      <c r="AL36">
+        <v>0.86710911237800636</v>
+      </c>
+    </row>
+    <row r="37" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>92.460488412529529</v>
+      </c>
+      <c r="F37">
+        <v>0.24003099751444851</v>
+      </c>
+      <c r="G37">
+        <v>0.92460488412529518</v>
+      </c>
+      <c r="H37">
+        <v>0.92399743567296433</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37">
+        <v>91.359354319674054</v>
+      </c>
+      <c r="L37">
+        <v>0.31969308261825902</v>
+      </c>
+      <c r="M37">
+        <v>0.91359354319674035</v>
+      </c>
+      <c r="N37">
+        <v>0.91196596253975193</v>
+      </c>
+      <c r="P37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q37">
+        <v>84.234552202008672</v>
+      </c>
+      <c r="R37">
+        <v>0.58272835592040528</v>
+      </c>
+      <c r="S37">
+        <v>0.84234552202008661</v>
+      </c>
+      <c r="T37">
+        <v>0.83618841132125876</v>
+      </c>
+      <c r="V37" t="s">
+        <v>38</v>
+      </c>
+      <c r="W37">
+        <v>90.860820595333877</v>
+      </c>
+      <c r="X37">
+        <v>0.4209460313964617</v>
+      </c>
+      <c r="Y37">
+        <v>0.90860820595333869</v>
+      </c>
+      <c r="Z37">
+        <v>0.8995939101032715</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC37">
+        <v>83.109974999783731</v>
+      </c>
+      <c r="AD37">
+        <v>0.69654529395795151</v>
+      </c>
+      <c r="AE37">
+        <v>0.83109974999783742</v>
+      </c>
+      <c r="AF37">
+        <v>0.82846703207772232</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI37">
+        <v>72.578309500947242</v>
+      </c>
+      <c r="AJ37">
+        <v>2.824652979477408</v>
+      </c>
+      <c r="AK37">
+        <v>0.72578309500947236</v>
+      </c>
+      <c r="AL37">
+        <v>0.67781972750139297</v>
+      </c>
+    </row>
+    <row r="38" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38">
+        <v>86.286992102007801</v>
+      </c>
+      <c r="F38">
+        <v>0.36182985186169392</v>
+      </c>
+      <c r="G38">
+        <v>0.86286992102007809</v>
+      </c>
+      <c r="H38">
+        <v>0.85781883598008746</v>
+      </c>
+      <c r="J38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38">
+        <v>89.67759236671597</v>
+      </c>
+      <c r="L38">
+        <v>0.27181232008790063</v>
+      </c>
+      <c r="M38">
+        <v>0.89677592366715975</v>
+      </c>
+      <c r="N38">
+        <v>0.89550147506672284</v>
+      </c>
+      <c r="P38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38">
+        <v>82.612133322952616</v>
+      </c>
+      <c r="R38">
+        <v>0.51548365129080298</v>
+      </c>
+      <c r="S38">
+        <v>0.8261213332295263</v>
+      </c>
+      <c r="T38">
+        <v>0.81555788555811282</v>
+      </c>
+      <c r="V38" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38">
+        <v>82.871218609157523</v>
+      </c>
+      <c r="X38">
+        <v>0.73570157571965256</v>
+      </c>
+      <c r="Y38">
+        <v>0.82871218609157515</v>
+      </c>
+      <c r="Z38">
+        <v>0.81338590348193063</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC38">
+        <v>80.041090320850529</v>
+      </c>
+      <c r="AD38">
+        <v>0.79609066395011396</v>
+      </c>
+      <c r="AE38">
+        <v>0.80041090320850528</v>
+      </c>
+      <c r="AF38">
+        <v>0.7909919860060608</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI38">
+        <v>59.991608923952633</v>
+      </c>
+      <c r="AJ38">
+        <v>6.8928141909341019</v>
+      </c>
+      <c r="AK38">
+        <v>0.59991608923952633</v>
+      </c>
+      <c r="AL38">
+        <v>0.53487214937355432</v>
+      </c>
+    </row>
+    <row r="39" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>83.431344561804167</v>
+      </c>
+      <c r="F39">
+        <v>1.5299488283898379</v>
+      </c>
+      <c r="G39">
+        <v>0.83431344561804166</v>
+      </c>
+      <c r="H39">
+        <v>0.81476883667348776</v>
+      </c>
+      <c r="J39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39">
+        <v>92.657462434796145</v>
+      </c>
+      <c r="L39">
+        <v>0.31146398681274462</v>
+      </c>
+      <c r="M39">
+        <v>0.92657462434796156</v>
+      </c>
+      <c r="N39">
+        <v>0.92254584973823905</v>
+      </c>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39">
+        <v>86.081540497755171</v>
+      </c>
+      <c r="R39">
+        <v>0.60148491448999264</v>
+      </c>
+      <c r="S39">
+        <v>0.86081540497755182</v>
+      </c>
+      <c r="T39">
+        <v>0.84940955501819349</v>
+      </c>
+      <c r="V39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39">
+        <v>95.371326741580816</v>
+      </c>
+      <c r="X39">
+        <v>0.18305584030919511</v>
+      </c>
+      <c r="Y39">
+        <v>0.95371326741580797</v>
+      </c>
+      <c r="Z39">
+        <v>0.95376546818572105</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC39">
+        <v>73.323817680083749</v>
+      </c>
+      <c r="AD39">
+        <v>3.6276108515670411</v>
+      </c>
+      <c r="AE39">
+        <v>0.73323817680083736</v>
+      </c>
+      <c r="AF39">
+        <v>0.68115430480437655</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI39">
+        <v>66.312684365781706</v>
+      </c>
+      <c r="AJ39">
+        <v>3.2633745329431099</v>
+      </c>
+      <c r="AK39">
+        <v>0.66312684365781716</v>
+      </c>
+      <c r="AL39">
+        <v>0.61804708612316073</v>
+      </c>
+    </row>
+    <row r="40" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>85.517608283808684</v>
+      </c>
+      <c r="F40">
+        <v>0.68253861641060209</v>
+      </c>
+      <c r="G40">
+        <v>0.85517608283808677</v>
+      </c>
+      <c r="H40">
+        <v>0.85064209701291771</v>
+      </c>
+      <c r="J40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40">
+        <v>86.401525964757482</v>
+      </c>
+      <c r="L40">
+        <v>0.64613698016289667</v>
+      </c>
+      <c r="M40">
+        <v>0.86401525964757475</v>
+      </c>
+      <c r="N40">
+        <v>0.86191114727646312</v>
+      </c>
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q40">
+        <v>87.414683518023509</v>
+      </c>
+      <c r="R40">
+        <v>0.4645375221847341</v>
+      </c>
+      <c r="S40">
+        <v>0.87414683518023506</v>
+      </c>
+      <c r="T40">
+        <v>0.86740365229522853</v>
+      </c>
+      <c r="V40" t="s">
+        <v>41</v>
+      </c>
+      <c r="W40">
+        <v>83.452365504891901</v>
+      </c>
+      <c r="X40">
+        <v>1.0347890863191991</v>
+      </c>
+      <c r="Y40">
+        <v>0.83452365504891923</v>
+      </c>
+      <c r="Z40">
+        <v>0.80860355063486611</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC40">
+        <v>80.885388281905563</v>
+      </c>
+      <c r="AD40">
+        <v>0.88270141789384982</v>
+      </c>
+      <c r="AE40">
+        <v>0.80885388281905557</v>
+      </c>
+      <c r="AF40">
+        <v>0.80127955591665878</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI40">
+        <v>77.471258401889287</v>
+      </c>
+      <c r="AJ40">
+        <v>1.339551617959567</v>
+      </c>
+      <c r="AK40">
+        <v>0.77471258401889287</v>
+      </c>
+      <c r="AL40">
+        <v>0.736117002120945</v>
+      </c>
+    </row>
+    <row r="41" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41">
+        <v>81.459441690672065</v>
+      </c>
+      <c r="F41">
+        <v>0.77708356278976964</v>
+      </c>
+      <c r="G41">
+        <v>0.81459441690672063</v>
+      </c>
+      <c r="H41">
+        <v>0.81033308806159243</v>
+      </c>
+      <c r="J41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41">
+        <v>77.457071427953537</v>
+      </c>
+      <c r="L41">
+        <v>1.5972501426856569</v>
+      </c>
+      <c r="M41">
+        <v>0.77457071427953528</v>
+      </c>
+      <c r="N41">
+        <v>0.75483369159452185</v>
+      </c>
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41">
+        <v>78.338826460436508</v>
+      </c>
+      <c r="R41">
+        <v>1.423587090865476</v>
+      </c>
+      <c r="S41">
+        <v>0.78338826460436517</v>
+      </c>
+      <c r="T41">
+        <v>0.76163826426982073</v>
+      </c>
+      <c r="V41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41">
+        <v>86.626354899263831</v>
+      </c>
+      <c r="X41">
+        <v>0.50056521423227873</v>
+      </c>
+      <c r="Y41">
+        <v>0.86626354899263835</v>
+      </c>
+      <c r="Z41">
+        <v>0.86293501822439356</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC41">
+        <v>86.087422901582187</v>
+      </c>
+      <c r="AD41">
+        <v>0.50710969714707332</v>
+      </c>
+      <c r="AE41">
+        <v>0.86087422901582189</v>
+      </c>
+      <c r="AF41">
+        <v>0.85511233576708146</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI41">
+        <v>78.434761546380159</v>
+      </c>
+      <c r="AJ41">
+        <v>1.9654331076239331</v>
+      </c>
+      <c r="AK41">
+        <v>0.78434761546380161</v>
+      </c>
+      <c r="AL41">
+        <v>0.75514826221776832</v>
+      </c>
+    </row>
+    <row r="42" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42">
+        <v>88.614953416552041</v>
+      </c>
+      <c r="F42">
+        <v>0.5763286368059426</v>
+      </c>
+      <c r="G42">
+        <v>0.88614953416552056</v>
+      </c>
+      <c r="H42">
+        <v>0.87898356037117209</v>
+      </c>
+      <c r="J42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42">
+        <v>92.419052067924468</v>
+      </c>
+      <c r="L42">
+        <v>0.32987444747874778</v>
+      </c>
+      <c r="M42">
+        <v>0.92419052067924456</v>
+      </c>
+      <c r="N42">
+        <v>0.92028769378060904</v>
+      </c>
+      <c r="P42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42">
+        <v>86.848329137795318</v>
+      </c>
+      <c r="R42">
+        <v>0.44953636451205381</v>
+      </c>
+      <c r="S42">
+        <v>0.86848329137795299</v>
+      </c>
+      <c r="T42">
+        <v>0.86626400643005907</v>
+      </c>
+      <c r="V42" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42">
+        <v>90.480107959411413</v>
+      </c>
+      <c r="X42">
+        <v>0.30789520124987269</v>
+      </c>
+      <c r="Y42">
+        <v>0.90480107959411415</v>
+      </c>
+      <c r="Z42">
+        <v>0.90368669525290135</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC42">
+        <v>85.634737324717349</v>
+      </c>
+      <c r="AD42">
+        <v>0.60457164846078137</v>
+      </c>
+      <c r="AE42">
+        <v>0.85634737324717347</v>
+      </c>
+      <c r="AF42">
+        <v>0.84662363148746933</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI42">
+        <v>63.670792999939437</v>
+      </c>
+      <c r="AJ42">
+        <v>7.1687708069725584</v>
+      </c>
+      <c r="AK42">
+        <v>0.63670792999939452</v>
+      </c>
+      <c r="AL42">
+        <v>0.57020790326789905</v>
+      </c>
+    </row>
+    <row r="43" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>78.662272164984117</v>
+      </c>
+      <c r="F43">
+        <v>0.74090382284175571</v>
+      </c>
+      <c r="G43">
+        <v>0.78662272164984126</v>
+      </c>
+      <c r="H43">
+        <v>0.77905664151620668</v>
+      </c>
+      <c r="J43" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43">
+        <v>77.720049481396899</v>
+      </c>
+      <c r="L43">
+        <v>1.044258563521377</v>
+      </c>
+      <c r="M43">
+        <v>0.77720049481396902</v>
+      </c>
+      <c r="N43">
+        <v>0.76161160969188424</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43">
+        <v>82.22813346136212</v>
+      </c>
+      <c r="R43">
+        <v>0.71108455566215223</v>
+      </c>
+      <c r="S43">
+        <v>0.82228133461362118</v>
+      </c>
+      <c r="T43">
+        <v>0.80905428490930276</v>
+      </c>
+      <c r="V43" t="s">
+        <v>44</v>
+      </c>
+      <c r="W43">
+        <v>86.791062206420477</v>
+      </c>
+      <c r="X43">
+        <v>0.44418932102936037</v>
+      </c>
+      <c r="Y43">
+        <v>0.86791062206420477</v>
+      </c>
+      <c r="Z43">
+        <v>0.85400587611129275</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC43">
+        <v>85.138798778536142</v>
+      </c>
+      <c r="AD43">
+        <v>0.44521909324624481</v>
+      </c>
+      <c r="AE43">
+        <v>0.85138798778536151</v>
+      </c>
+      <c r="AF43">
+        <v>0.84481606369568552</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI43">
+        <v>80.175174525731194</v>
+      </c>
+      <c r="AJ43">
+        <v>2.8003034280956252</v>
+      </c>
+      <c r="AK43">
+        <v>0.80175174525731197</v>
+      </c>
+      <c r="AL43">
+        <v>0.77898202545895256</v>
+      </c>
+    </row>
+    <row r="44" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>75.139317814167939</v>
+      </c>
+      <c r="F44">
+        <v>1.4847455277030031</v>
+      </c>
+      <c r="G44">
+        <v>0.7513931781416795</v>
+      </c>
+      <c r="H44">
+        <v>0.71712625736941926</v>
+      </c>
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44">
+        <v>76.905423057292893</v>
+      </c>
+      <c r="L44">
+        <v>1.358060164513275</v>
+      </c>
+      <c r="M44">
+        <v>0.76905423057292888</v>
+      </c>
+      <c r="N44">
+        <v>0.7481299208698784</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44">
+        <v>73.813095268990224</v>
+      </c>
+      <c r="R44">
+        <v>1.366392679663841</v>
+      </c>
+      <c r="S44">
+        <v>0.73813095268990214</v>
+      </c>
+      <c r="T44">
+        <v>0.72082241874744701</v>
+      </c>
+      <c r="V44" t="s">
+        <v>45</v>
+      </c>
+      <c r="W44">
+        <v>74.548482253306688</v>
+      </c>
+      <c r="X44">
+        <v>1.4053529830483169</v>
+      </c>
+      <c r="Y44">
+        <v>0.74548482253306692</v>
+      </c>
+      <c r="Z44">
+        <v>0.72159618295748063</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC44">
+        <v>65.877646000397931</v>
+      </c>
+      <c r="AD44">
+        <v>4.9979567789666666</v>
+      </c>
+      <c r="AE44">
+        <v>0.65877646000397927</v>
+      </c>
+      <c r="AF44">
+        <v>0.60614153152017769</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI44">
+        <v>68.089516345297099</v>
+      </c>
+      <c r="AJ44">
+        <v>2.087800007994518</v>
+      </c>
+      <c r="AK44">
+        <v>0.68089516345297108</v>
+      </c>
+      <c r="AL44">
+        <v>0.65620829968813277</v>
+      </c>
+    </row>
+    <row r="45" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>81.419735464839661</v>
+      </c>
+      <c r="F45">
+        <v>0.96523536736413007</v>
+      </c>
+      <c r="G45">
+        <v>0.8141973546483966</v>
+      </c>
+      <c r="H45">
+        <v>0.79997848184990228</v>
+      </c>
+      <c r="J45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45">
+        <v>82.095779375254125</v>
+      </c>
+      <c r="L45">
+        <v>1.1707041222742001</v>
+      </c>
+      <c r="M45">
+        <v>0.82095779375254119</v>
+      </c>
+      <c r="N45">
+        <v>0.80494847551713755</v>
+      </c>
+      <c r="P45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45">
+        <v>77.234578153790252</v>
+      </c>
+      <c r="R45">
+        <v>0.98005988478350137</v>
+      </c>
+      <c r="S45">
+        <v>0.77234578153790256</v>
+      </c>
+      <c r="T45">
+        <v>0.76042786852481581</v>
+      </c>
+      <c r="V45" t="s">
+        <v>46</v>
+      </c>
+      <c r="W45">
+        <v>82.362823207813221</v>
+      </c>
+      <c r="X45">
+        <v>0.91194097971019805</v>
+      </c>
+      <c r="Y45">
+        <v>0.82362823207813207</v>
+      </c>
+      <c r="Z45">
+        <v>0.8074881524456583</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC45">
+        <v>73.699426465626871</v>
+      </c>
+      <c r="AD45">
+        <v>1.2274343152947651</v>
+      </c>
+      <c r="AE45">
+        <v>0.73699426465626861</v>
+      </c>
+      <c r="AF45">
+        <v>0.71187857652203446</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI45">
+        <v>74.488447131895597</v>
+      </c>
+      <c r="AJ45">
+        <v>1.075009313489621</v>
+      </c>
+      <c r="AK45">
+        <v>0.74488447131895608</v>
+      </c>
+      <c r="AL45">
+        <v>0.7375859024862228</v>
+      </c>
+    </row>
+    <row r="46" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46">
+        <v>96.018045138798783</v>
+      </c>
+      <c r="F46">
+        <v>9.2784852778239169E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.96018045138798769</v>
+      </c>
+      <c r="H46">
+        <v>0.96023441899197481</v>
+      </c>
+      <c r="J46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46">
+        <v>95.251602522513167</v>
+      </c>
+      <c r="L46">
+        <v>0.11993360483299351</v>
+      </c>
+      <c r="M46">
+        <v>0.95251602522513179</v>
+      </c>
+      <c r="N46">
+        <v>0.95256683858219626</v>
+      </c>
+      <c r="P46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q46">
+        <v>95.200910042474419</v>
+      </c>
+      <c r="R46">
+        <v>0.19833300263070441</v>
+      </c>
+      <c r="S46">
+        <v>0.95200910042474407</v>
+      </c>
+      <c r="T46">
+        <v>0.95229228603910321</v>
+      </c>
+      <c r="V46" t="s">
+        <v>47</v>
+      </c>
+      <c r="W46">
+        <v>95.988373601847769</v>
+      </c>
+      <c r="X46">
+        <v>0.112955286687526</v>
+      </c>
+      <c r="Y46">
+        <v>0.95988373601847776</v>
+      </c>
+      <c r="Z46">
+        <v>0.95955660197628256</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC46">
+        <v>90.566873415860002</v>
+      </c>
+      <c r="AD46">
+        <v>0.57064524933616978</v>
+      </c>
+      <c r="AE46">
+        <v>0.90566873415860005</v>
+      </c>
+      <c r="AF46">
+        <v>0.89839380342069097</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI46">
+        <v>95.439666433100641</v>
+      </c>
+      <c r="AJ46">
+        <v>0.2709737957833136</v>
+      </c>
+      <c r="AK46">
+        <v>0.95439666433100645</v>
+      </c>
+      <c r="AL46">
+        <v>0.95397495160680135</v>
+      </c>
+    </row>
+    <row r="47" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>96.711390236939764</v>
+      </c>
+      <c r="F47">
+        <v>0.1131036691860075</v>
+      </c>
+      <c r="G47">
+        <v>0.96711390236939765</v>
+      </c>
+      <c r="H47">
+        <v>0.96638568374860567</v>
+      </c>
+      <c r="J47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47">
+        <v>99.174041297935105</v>
+      </c>
+      <c r="L47">
+        <v>2.1977024801770519E-2</v>
+      </c>
+      <c r="M47">
+        <v>0.991740412979351</v>
+      </c>
+      <c r="N47">
+        <v>0.99174024877221656</v>
+      </c>
+      <c r="P47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47">
+        <v>98.436924194845972</v>
+      </c>
+      <c r="R47">
+        <v>7.532707621431281E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.98436924194845976</v>
+      </c>
+      <c r="T47">
+        <v>0.98435958573053084</v>
+      </c>
+      <c r="V47" t="s">
+        <v>48</v>
+      </c>
+      <c r="W47">
+        <v>98.378100156575755</v>
+      </c>
+      <c r="X47">
+        <v>5.6132181339998033E-2</v>
+      </c>
+      <c r="Y47">
+        <v>0.98378100156575743</v>
+      </c>
+      <c r="Z47">
+        <v>0.98343765755046353</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC47">
+        <v>95.642868882948818</v>
+      </c>
+      <c r="AD47">
+        <v>0.16935534410736749</v>
+      </c>
+      <c r="AE47">
+        <v>0.95642868882948806</v>
+      </c>
+      <c r="AF47">
+        <v>0.95545257975089426</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI47">
+        <v>85.029974307736225</v>
+      </c>
+      <c r="AJ47">
+        <v>5.1751114641350986</v>
+      </c>
+      <c r="AK47">
+        <v>0.85029974307736222</v>
+      </c>
+      <c r="AL47">
+        <v>0.8215900398871584</v>
+      </c>
+    </row>
+    <row r="48" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <v>88.391422071125177</v>
+      </c>
+      <c r="F48">
+        <v>0.9737045681752392</v>
+      </c>
+      <c r="G48">
+        <v>0.88391422071125181</v>
+      </c>
+      <c r="H48">
+        <v>0.87022695707743836</v>
+      </c>
+      <c r="J48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48">
+        <v>79.059507435185424</v>
+      </c>
+      <c r="L48">
+        <v>5.0022661740233048</v>
+      </c>
+      <c r="M48">
+        <v>0.79059507435185428</v>
+      </c>
+      <c r="N48">
+        <v>0.73867967971266413</v>
+      </c>
+      <c r="P48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48">
+        <v>92.805128072042152</v>
+      </c>
+      <c r="R48">
+        <v>0.81307136926639867</v>
+      </c>
+      <c r="S48">
+        <v>0.92805128072042142</v>
+      </c>
+      <c r="T48">
+        <v>0.91001170284339017</v>
+      </c>
+      <c r="V48" t="s">
+        <v>49</v>
+      </c>
+      <c r="W48">
+        <v>92.566717705170461</v>
+      </c>
+      <c r="X48">
+        <v>0.85651834967605311</v>
+      </c>
+      <c r="Y48">
+        <v>0.92566717705170465</v>
+      </c>
+      <c r="Z48">
+        <v>0.90298799583935951</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC48">
+        <v>92.301577003261272</v>
+      </c>
+      <c r="AD48">
+        <v>0.83108791711362873</v>
+      </c>
+      <c r="AE48">
+        <v>0.92301577003261281</v>
+      </c>
+      <c r="AF48">
+        <v>0.90061306816279596</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI48">
+        <v>92.625368731563427</v>
+      </c>
+      <c r="AJ48">
+        <v>1.3132708158974919</v>
+      </c>
+      <c r="AK48">
+        <v>0.92625368731563429</v>
+      </c>
+      <c r="AL48">
+        <v>0.9034545905515351</v>
+      </c>
+    </row>
+    <row r="49" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <f>AVERAGE(E4:E48)</f>
+        <v>80.316902010878607</v>
+      </c>
+      <c r="J49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <f>AVERAGE(K4:K48)</f>
+        <v>81.396842148769082</v>
+      </c>
+      <c r="P49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49">
+        <f>AVERAGE(Q4:Q48)</f>
+        <v>76.111163975851383</v>
+      </c>
+      <c r="V49" t="s">
+        <v>50</v>
+      </c>
+      <c r="W49">
+        <f>AVERAGE(W4:W48)</f>
+        <v>78.251386257666596</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC49">
+        <f>AVERAGE(AC4:AC48)</f>
+        <v>73.843047469653214</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI49">
+        <f>AVERAGE(AI4:AI48)</f>
+        <v>71.20017570317313</v>
       </c>
     </row>
   </sheetData>
@@ -9700,4486 +14180,6 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="W1:Z1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2328C8CC-3742-41E6-91E5-A15E74AAF9C2}">
-  <dimension ref="A1:AL49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="2"/>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="P1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="V1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AH1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2"/>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="2">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="2">
-        <v>16</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="6"/>
-      <c r="AH2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>16</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" s="6"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="4">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>60.705369423610932</v>
-      </c>
-      <c r="F4">
-        <v>1.815530368813052</v>
-      </c>
-      <c r="G4">
-        <v>0.60705369423610933</v>
-      </c>
-      <c r="H4">
-        <v>0.53508449162859162</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>52.979091514632479</v>
-      </c>
-      <c r="L4">
-        <v>2.7926855608430352</v>
-      </c>
-      <c r="M4">
-        <v>0.52979091514632481</v>
-      </c>
-      <c r="N4">
-        <v>0.44813288187626898</v>
-      </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <v>50.394640092042323</v>
-      </c>
-      <c r="R4">
-        <v>3.8970710063656342</v>
-      </c>
-      <c r="S4">
-        <v>0.5039464009204232</v>
-      </c>
-      <c r="T4">
-        <v>0.38898601523703502</v>
-      </c>
-      <c r="V4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <v>50.725092777619182</v>
-      </c>
-      <c r="X4">
-        <v>4.0903544701030112</v>
-      </c>
-      <c r="Y4">
-        <v>0.50725092777619185</v>
-      </c>
-      <c r="Z4">
-        <v>0.39789532126388971</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4">
-        <v>55.547020302943807</v>
-      </c>
-      <c r="AD4">
-        <v>5.396716361535427</v>
-      </c>
-      <c r="AE4">
-        <v>0.55547020302943795</v>
-      </c>
-      <c r="AF4">
-        <v>0.4415078459138792</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI4">
-        <v>52.245867178781829</v>
-      </c>
-      <c r="AJ4">
-        <v>3.8037249136465112</v>
-      </c>
-      <c r="AK4">
-        <v>0.52245867178781824</v>
-      </c>
-      <c r="AL4">
-        <v>0.41062696322492481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>58.477754997880609</v>
-      </c>
-      <c r="F5">
-        <v>2.7262092993179978</v>
-      </c>
-      <c r="G5">
-        <v>0.58477754997880604</v>
-      </c>
-      <c r="H5">
-        <v>0.52097364177969074</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>64.191472244569596</v>
-      </c>
-      <c r="L5">
-        <v>1.951101351877635</v>
-      </c>
-      <c r="M5">
-        <v>0.64191472244569581</v>
-      </c>
-      <c r="N5">
-        <v>0.57473333094886914</v>
-      </c>
-      <c r="P5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>62.733933684547438</v>
-      </c>
-      <c r="R5">
-        <v>2.607102723851312</v>
-      </c>
-      <c r="S5">
-        <v>0.62733933684547449</v>
-      </c>
-      <c r="T5">
-        <v>0.57931939920873576</v>
-      </c>
-      <c r="V5" t="s">
-        <v>6</v>
-      </c>
-      <c r="W5">
-        <v>48.443325634304799</v>
-      </c>
-      <c r="X5">
-        <v>5.177722524938523</v>
-      </c>
-      <c r="Y5">
-        <v>0.48443325634304801</v>
-      </c>
-      <c r="Z5">
-        <v>0.40846419455258448</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC5">
-        <v>54.144672531769309</v>
-      </c>
-      <c r="AD5">
-        <v>3.4274993335041168</v>
-      </c>
-      <c r="AE5">
-        <v>0.54144672531769311</v>
-      </c>
-      <c r="AF5">
-        <v>0.46156301641070768</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI5">
-        <v>48.98000847758199</v>
-      </c>
-      <c r="AJ5">
-        <v>8.5182244343777747</v>
-      </c>
-      <c r="AK5">
-        <v>0.48980008477581982</v>
-      </c>
-      <c r="AL5">
-        <v>0.37521026480918679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>54.495454112924861</v>
-      </c>
-      <c r="F6">
-        <v>3.4720402531634869</v>
-      </c>
-      <c r="G6">
-        <v>0.54495454112924846</v>
-      </c>
-      <c r="H6">
-        <v>0.45392820625702368</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>63.380306058010888</v>
-      </c>
-      <c r="L6">
-        <v>2.2430678875447478</v>
-      </c>
-      <c r="M6">
-        <v>0.63380306058010882</v>
-      </c>
-      <c r="N6">
-        <v>0.57157326371123574</v>
-      </c>
-      <c r="P6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>57.424718206904899</v>
-      </c>
-      <c r="R6">
-        <v>2.5656372129296261</v>
-      </c>
-      <c r="S6">
-        <v>0.57424718206904912</v>
-      </c>
-      <c r="T6">
-        <v>0.50457800023749999</v>
-      </c>
-      <c r="V6" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6">
-        <v>33.554702030294379</v>
-      </c>
-      <c r="X6">
-        <v>9.904285525848703</v>
-      </c>
-      <c r="Y6">
-        <v>0.33554702030294381</v>
-      </c>
-      <c r="Z6">
-        <v>0.21122812814938999</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC6">
-        <v>47.008970665836209</v>
-      </c>
-      <c r="AD6">
-        <v>5.9313001431265242</v>
-      </c>
-      <c r="AE6">
-        <v>0.47008970665836208</v>
-      </c>
-      <c r="AF6">
-        <v>0.34453355395437069</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI6">
-        <v>50.479675429718249</v>
-      </c>
-      <c r="AJ6">
-        <v>6.406636442680993</v>
-      </c>
-      <c r="AK6">
-        <v>0.50479675429718252</v>
-      </c>
-      <c r="AL6">
-        <v>0.37212026431156481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>56.933883511103033</v>
-      </c>
-      <c r="F7">
-        <v>3.3032093053101561</v>
-      </c>
-      <c r="G7">
-        <v>0.56933883511103045</v>
-      </c>
-      <c r="H7">
-        <v>0.47001585296557968</v>
-      </c>
-      <c r="J7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>61.673370876910703</v>
-      </c>
-      <c r="L7">
-        <v>2.6438955129396771</v>
-      </c>
-      <c r="M7">
-        <v>0.61673370876910705</v>
-      </c>
-      <c r="N7">
-        <v>0.55176817017587587</v>
-      </c>
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7">
-        <v>60.695680758484073</v>
-      </c>
-      <c r="R7">
-        <v>2.9068993933227221</v>
-      </c>
-      <c r="S7">
-        <v>0.60695680758484072</v>
-      </c>
-      <c r="T7">
-        <v>0.54120840143711546</v>
-      </c>
-      <c r="V7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W7">
-        <v>48.720404155745292</v>
-      </c>
-      <c r="X7">
-        <v>7.0057698439317848</v>
-      </c>
-      <c r="Y7">
-        <v>0.48720404155745289</v>
-      </c>
-      <c r="Z7">
-        <v>0.37341082458332869</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC7">
-        <v>47.711398887533633</v>
-      </c>
-      <c r="AD7">
-        <v>4.8647452925978714</v>
-      </c>
-      <c r="AE7">
-        <v>0.47711398887533629</v>
-      </c>
-      <c r="AF7">
-        <v>0.36792762771398801</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI7">
-        <v>42.412218098772478</v>
-      </c>
-      <c r="AJ7">
-        <v>8.5112028073014496</v>
-      </c>
-      <c r="AK7">
-        <v>0.42412218098772481</v>
-      </c>
-      <c r="AL7">
-        <v>0.27025574587650342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>72.075883009368596</v>
-      </c>
-      <c r="F8">
-        <v>1.325955830806925</v>
-      </c>
-      <c r="G8">
-        <v>0.72075883009368591</v>
-      </c>
-      <c r="H8">
-        <v>0.68777775122950502</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>70.9728457858632</v>
-      </c>
-      <c r="L8">
-        <v>1.4924060158115029</v>
-      </c>
-      <c r="M8">
-        <v>0.70972845785863203</v>
-      </c>
-      <c r="N8">
-        <v>0.68358960515247147</v>
-      </c>
-      <c r="P8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8">
-        <v>47.426967361309352</v>
-      </c>
-      <c r="R8">
-        <v>8.1512626748845687</v>
-      </c>
-      <c r="S8">
-        <v>0.47426967361309352</v>
-      </c>
-      <c r="T8">
-        <v>0.37092827329548872</v>
-      </c>
-      <c r="V8" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8">
-        <v>57.273073296481797</v>
-      </c>
-      <c r="X8">
-        <v>4.9756198430824039</v>
-      </c>
-      <c r="Y8">
-        <v>0.57273073296481802</v>
-      </c>
-      <c r="Z8">
-        <v>0.4994381426084934</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8">
-        <v>49.601553646657848</v>
-      </c>
-      <c r="AD8">
-        <v>4.98822941391367</v>
-      </c>
-      <c r="AE8">
-        <v>0.49601553646657842</v>
-      </c>
-      <c r="AF8">
-        <v>0.41506804407686632</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI8">
-        <v>59.323177536137862</v>
-      </c>
-      <c r="AJ8">
-        <v>4.6811300155159667</v>
-      </c>
-      <c r="AK8">
-        <v>0.59323177536137861</v>
-      </c>
-      <c r="AL8">
-        <v>0.50339496079894719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>75.279457434752899</v>
-      </c>
-      <c r="F9">
-        <v>0.92392174069785449</v>
-      </c>
-      <c r="G9">
-        <v>0.75279457434752894</v>
-      </c>
-      <c r="H9">
-        <v>0.74406292856812983</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>58.602064031695782</v>
-      </c>
-      <c r="L9">
-        <v>2.5129891470378238</v>
-      </c>
-      <c r="M9">
-        <v>0.58602064031695777</v>
-      </c>
-      <c r="N9">
-        <v>0.53240162927440571</v>
-      </c>
-      <c r="P9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9">
-        <v>48.724902464554191</v>
-      </c>
-      <c r="R9">
-        <v>5.3649418093429029</v>
-      </c>
-      <c r="S9">
-        <v>0.48724902464554187</v>
-      </c>
-      <c r="T9">
-        <v>0.40131665757626039</v>
-      </c>
-      <c r="V9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9">
-        <v>61.738077319007949</v>
-      </c>
-      <c r="X9">
-        <v>2.2335666310614521</v>
-      </c>
-      <c r="Y9">
-        <v>0.61738077319007956</v>
-      </c>
-      <c r="Z9">
-        <v>0.54354051644110901</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC9">
-        <v>53.821832368792123</v>
-      </c>
-      <c r="AD9">
-        <v>2.817867703717396</v>
-      </c>
-      <c r="AE9">
-        <v>0.53821832368792122</v>
-      </c>
-      <c r="AF9">
-        <v>0.48175745130063902</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI9">
-        <v>46.832325539148258</v>
-      </c>
-      <c r="AJ9">
-        <v>8.2945284551962679</v>
-      </c>
-      <c r="AK9">
-        <v>0.46832325539148262</v>
-      </c>
-      <c r="AL9">
-        <v>0.35655813248629659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>72.550195070891618</v>
-      </c>
-      <c r="F10">
-        <v>1.569144308140191</v>
-      </c>
-      <c r="G10">
-        <v>0.72550195070891621</v>
-      </c>
-      <c r="H10">
-        <v>0.69919857158585363</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10">
-        <v>65.393991297502566</v>
-      </c>
-      <c r="L10">
-        <v>2.4764166678612431</v>
-      </c>
-      <c r="M10">
-        <v>0.65393991297502574</v>
-      </c>
-      <c r="N10">
-        <v>0.60723177689522501</v>
-      </c>
-      <c r="P10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10">
-        <v>45.242346387079472</v>
-      </c>
-      <c r="R10">
-        <v>6.745510484590878</v>
-      </c>
-      <c r="S10">
-        <v>0.45242346387079468</v>
-      </c>
-      <c r="T10">
-        <v>0.33775041316841969</v>
-      </c>
-      <c r="V10" t="s">
-        <v>11</v>
-      </c>
-      <c r="W10">
-        <v>44.028495056185598</v>
-      </c>
-      <c r="X10">
-        <v>6.6246597312558926</v>
-      </c>
-      <c r="Y10">
-        <v>0.44028495056185613</v>
-      </c>
-      <c r="Z10">
-        <v>0.33761774317488258</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC10">
-        <v>60.523447434666387</v>
-      </c>
-      <c r="AD10">
-        <v>11.39795744409723</v>
-      </c>
-      <c r="AE10">
-        <v>0.60523447434666389</v>
-      </c>
-      <c r="AF10">
-        <v>0.54144301159066699</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI10">
-        <v>51.373454787671179</v>
-      </c>
-      <c r="AJ10">
-        <v>2.859824517170515</v>
-      </c>
-      <c r="AK10">
-        <v>0.51373454787671169</v>
-      </c>
-      <c r="AL10">
-        <v>0.44988552883141081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>81.254509122051232</v>
-      </c>
-      <c r="F11">
-        <v>1.054199706686995</v>
-      </c>
-      <c r="G11">
-        <v>0.81254509122051233</v>
-      </c>
-      <c r="H11">
-        <v>0.78307026027813009</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>77.655689063054183</v>
-      </c>
-      <c r="L11">
-        <v>1.688688048220865</v>
-      </c>
-      <c r="M11">
-        <v>0.77655689063054179</v>
-      </c>
-      <c r="N11">
-        <v>0.74688416418501702</v>
-      </c>
-      <c r="P11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <v>63.930137803960243</v>
-      </c>
-      <c r="R11">
-        <v>5.1906117348213829</v>
-      </c>
-      <c r="S11">
-        <v>0.63930137803960241</v>
-      </c>
-      <c r="T11">
-        <v>0.56278804058822351</v>
-      </c>
-      <c r="V11" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11">
-        <v>63.198989610636772</v>
-      </c>
-      <c r="X11">
-        <v>3.6282784492908831</v>
-      </c>
-      <c r="Y11">
-        <v>0.63198989610636769</v>
-      </c>
-      <c r="Z11">
-        <v>0.57812969609274834</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11">
-        <v>60.653033330738147</v>
-      </c>
-      <c r="AD11">
-        <v>2.7984748258759109</v>
-      </c>
-      <c r="AE11">
-        <v>0.6065303333073816</v>
-      </c>
-      <c r="AF11">
-        <v>0.548677749847861</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI11">
-        <v>76.65896763812836</v>
-      </c>
-      <c r="AJ11">
-        <v>1.167313408900865</v>
-      </c>
-      <c r="AK11">
-        <v>0.76658967638128361</v>
-      </c>
-      <c r="AL11">
-        <v>0.75115429846164383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>82.838605870292994</v>
-      </c>
-      <c r="F12">
-        <v>0.51836631045249915</v>
-      </c>
-      <c r="G12">
-        <v>0.82838605870292992</v>
-      </c>
-      <c r="H12">
-        <v>0.83090983846868771</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12">
-        <v>82.657635446673424</v>
-      </c>
-      <c r="L12">
-        <v>1.2329368171416719</v>
-      </c>
-      <c r="M12">
-        <v>0.82657635446673416</v>
-      </c>
-      <c r="N12">
-        <v>0.80879109902388235</v>
-      </c>
-      <c r="P12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12">
-        <v>69.448957170909779</v>
-      </c>
-      <c r="R12">
-        <v>1.750920608361245</v>
-      </c>
-      <c r="S12">
-        <v>0.69448957170909786</v>
-      </c>
-      <c r="T12">
-        <v>0.66292497906471382</v>
-      </c>
-      <c r="V12" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12">
-        <v>85.254889748181213</v>
-      </c>
-      <c r="X12">
-        <v>0.43509901039942628</v>
-      </c>
-      <c r="Y12">
-        <v>0.85254889748181206</v>
-      </c>
-      <c r="Z12">
-        <v>0.85058755071845682</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12">
-        <v>71.19257086999022</v>
-      </c>
-      <c r="AD12">
-        <v>2.0179851419941</v>
-      </c>
-      <c r="AE12">
-        <v>0.71192570869990224</v>
-      </c>
-      <c r="AF12">
-        <v>0.67448347964870081</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI12">
-        <v>70.661943442417311</v>
-      </c>
-      <c r="AJ12">
-        <v>2.4778988691500712</v>
-      </c>
-      <c r="AK12">
-        <v>0.70661943442417319</v>
-      </c>
-      <c r="AL12">
-        <v>0.64946441925259635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>89.563231515843569</v>
-      </c>
-      <c r="F13">
-        <v>0.34715204322692439</v>
-      </c>
-      <c r="G13">
-        <v>0.89563231515843567</v>
-      </c>
-      <c r="H13">
-        <v>0.89415016389273005</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13">
-        <v>89.824046920821118</v>
-      </c>
-      <c r="L13">
-        <v>0.40472469523899313</v>
-      </c>
-      <c r="M13">
-        <v>0.8982404692082111</v>
-      </c>
-      <c r="N13">
-        <v>0.89432566868456043</v>
-      </c>
-      <c r="P13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13">
-        <v>88.940648275504117</v>
-      </c>
-      <c r="R13">
-        <v>0.50756571184732979</v>
-      </c>
-      <c r="S13">
-        <v>0.88940648275504119</v>
-      </c>
-      <c r="T13">
-        <v>0.88139450793579643</v>
-      </c>
-      <c r="V13" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13">
-        <v>80.927516674019671</v>
-      </c>
-      <c r="X13">
-        <v>1.129709282383313</v>
-      </c>
-      <c r="Y13">
-        <v>0.80927516674019662</v>
-      </c>
-      <c r="Z13">
-        <v>0.78630943441099055</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC13">
-        <v>79.884082042232194</v>
-      </c>
-      <c r="AD13">
-        <v>1.1567812887692079</v>
-      </c>
-      <c r="AE13">
-        <v>0.79884082042232196</v>
-      </c>
-      <c r="AF13">
-        <v>0.7853826050469459</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI13">
-        <v>82.598811408403179</v>
-      </c>
-      <c r="AJ13">
-        <v>1.86244145611506</v>
-      </c>
-      <c r="AK13">
-        <v>0.82598811408403194</v>
-      </c>
-      <c r="AL13">
-        <v>0.79155354671307809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>71.271031756330075</v>
-      </c>
-      <c r="F14">
-        <v>1.556572470158911</v>
-      </c>
-      <c r="G14">
-        <v>0.71271031756330072</v>
-      </c>
-      <c r="H14">
-        <v>0.68036488274965223</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <v>79.209422226835869</v>
-      </c>
-      <c r="L14">
-        <v>0.88510653943133855</v>
-      </c>
-      <c r="M14">
-        <v>0.79209422226835868</v>
-      </c>
-      <c r="N14">
-        <v>0.78229210056891052</v>
-      </c>
-      <c r="P14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14">
-        <v>61.039282346733103</v>
-      </c>
-      <c r="R14">
-        <v>2.6928286261324201</v>
-      </c>
-      <c r="S14">
-        <v>0.61039282346733104</v>
-      </c>
-      <c r="T14">
-        <v>0.52522860423277984</v>
-      </c>
-      <c r="V14" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14">
-        <v>63.125373056860347</v>
-      </c>
-      <c r="X14">
-        <v>1.801267114465009</v>
-      </c>
-      <c r="Y14">
-        <v>0.63125373056860357</v>
-      </c>
-      <c r="Z14">
-        <v>0.5694645343228244</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC14">
-        <v>54.616475921071981</v>
-      </c>
-      <c r="AD14">
-        <v>5.1934041883296969</v>
-      </c>
-      <c r="AE14">
-        <v>0.54616475921071983</v>
-      </c>
-      <c r="AF14">
-        <v>0.44787747093340619</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI14">
-        <v>64.735335080753288</v>
-      </c>
-      <c r="AJ14">
-        <v>1.6732687439459071</v>
-      </c>
-      <c r="AK14">
-        <v>0.64735335080753287</v>
-      </c>
-      <c r="AL14">
-        <v>0.61479265326442345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>61.72250625005406</v>
-      </c>
-      <c r="F15">
-        <v>4.1755154046327716</v>
-      </c>
-      <c r="G15">
-        <v>0.61722506250054066</v>
-      </c>
-      <c r="H15">
-        <v>0.54157842897064346</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15">
-        <v>71.685741226135178</v>
-      </c>
-      <c r="L15">
-        <v>1.53239366284544</v>
-      </c>
-      <c r="M15">
-        <v>0.71685741226135169</v>
-      </c>
-      <c r="N15">
-        <v>0.6862153393864141</v>
-      </c>
-      <c r="P15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15">
-        <v>67.285703163522172</v>
-      </c>
-      <c r="R15">
-        <v>3.190372479514918</v>
-      </c>
-      <c r="S15">
-        <v>0.67285703163522181</v>
-      </c>
-      <c r="T15">
-        <v>0.61801266467133453</v>
-      </c>
-      <c r="V15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W15">
-        <v>77.876192700628891</v>
-      </c>
-      <c r="X15">
-        <v>0.73619122326684494</v>
-      </c>
-      <c r="Y15">
-        <v>0.77876192700628899</v>
-      </c>
-      <c r="Z15">
-        <v>0.76681506855841342</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC15">
-        <v>69.605186896080426</v>
-      </c>
-      <c r="AD15">
-        <v>1.696572394665175</v>
-      </c>
-      <c r="AE15">
-        <v>0.69605186896080418</v>
-      </c>
-      <c r="AF15">
-        <v>0.66398393729655436</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI15">
-        <v>63.02199846019429</v>
-      </c>
-      <c r="AJ15">
-        <v>2.8160367001063911</v>
-      </c>
-      <c r="AK15">
-        <v>0.63021998460194284</v>
-      </c>
-      <c r="AL15">
-        <v>0.57939687994486566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>80.509260460730644</v>
-      </c>
-      <c r="F16">
-        <v>1.8742225130752099</v>
-      </c>
-      <c r="G16">
-        <v>0.80509260460730625</v>
-      </c>
-      <c r="H16">
-        <v>0.78083007915937752</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16">
-        <v>73.164992776754133</v>
-      </c>
-      <c r="L16">
-        <v>2.7186444764956832</v>
-      </c>
-      <c r="M16">
-        <v>0.73164992776754123</v>
-      </c>
-      <c r="N16">
-        <v>0.68585349768591564</v>
-      </c>
-      <c r="P16" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16">
-        <v>76.467529995934228</v>
-      </c>
-      <c r="R16">
-        <v>0.80518605061030635</v>
-      </c>
-      <c r="S16">
-        <v>0.76467529995934225</v>
-      </c>
-      <c r="T16">
-        <v>0.74495688320215181</v>
-      </c>
-      <c r="V16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W16">
-        <v>82.41083400375436</v>
-      </c>
-      <c r="X16">
-        <v>0.63551565080512473</v>
-      </c>
-      <c r="Y16">
-        <v>0.82410834003754352</v>
-      </c>
-      <c r="Z16">
-        <v>0.81913435906867904</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC16">
-        <v>74.240434605835688</v>
-      </c>
-      <c r="AD16">
-        <v>1.0118145495759869</v>
-      </c>
-      <c r="AE16">
-        <v>0.74240434605835692</v>
-      </c>
-      <c r="AF16">
-        <v>0.71878152627267922</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI16">
-        <v>81.951660481492056</v>
-      </c>
-      <c r="AJ16">
-        <v>0.80159868260185851</v>
-      </c>
-      <c r="AK16">
-        <v>0.81951660481492061</v>
-      </c>
-      <c r="AL16">
-        <v>0.79768627490961075</v>
-      </c>
-    </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>81.652782463516118</v>
-      </c>
-      <c r="F17">
-        <v>0.66045895234386387</v>
-      </c>
-      <c r="G17">
-        <v>0.81652782463516116</v>
-      </c>
-      <c r="H17">
-        <v>0.81355232868855398</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17">
-        <v>83.470531752004774</v>
-      </c>
-      <c r="L17">
-        <v>0.56909079357828884</v>
-      </c>
-      <c r="M17">
-        <v>0.83470531752004773</v>
-      </c>
-      <c r="N17">
-        <v>0.83169917026601414</v>
-      </c>
-      <c r="P17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17">
-        <v>80.451128469969461</v>
-      </c>
-      <c r="R17">
-        <v>0.84374403789988717</v>
-      </c>
-      <c r="S17">
-        <v>0.80451128469969468</v>
-      </c>
-      <c r="T17">
-        <v>0.78060780233527804</v>
-      </c>
-      <c r="V17" t="s">
-        <v>18</v>
-      </c>
-      <c r="W17">
-        <v>85.642522859194287</v>
-      </c>
-      <c r="X17">
-        <v>0.4853228713185066</v>
-      </c>
-      <c r="Y17">
-        <v>0.85642522859194281</v>
-      </c>
-      <c r="Z17">
-        <v>0.85731790518111473</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC17">
-        <v>79.028970838848096</v>
-      </c>
-      <c r="AD17">
-        <v>1.156320011910672</v>
-      </c>
-      <c r="AE17">
-        <v>0.79028970838848089</v>
-      </c>
-      <c r="AF17">
-        <v>0.77753299591498259</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI17">
-        <v>59.014870370850957</v>
-      </c>
-      <c r="AJ17">
-        <v>7.0296800486890181</v>
-      </c>
-      <c r="AK17">
-        <v>0.59014870370850958</v>
-      </c>
-      <c r="AL17">
-        <v>0.5406148326185487</v>
-      </c>
-    </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>72.194655663111263</v>
-      </c>
-      <c r="F18">
-        <v>1.653025351312378</v>
-      </c>
-      <c r="G18">
-        <v>0.72194655663111273</v>
-      </c>
-      <c r="H18">
-        <v>0.70687391183444193</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18">
-        <v>64.458256559312787</v>
-      </c>
-      <c r="L18">
-        <v>3.9549601398373251</v>
-      </c>
-      <c r="M18">
-        <v>0.64458256559312788</v>
-      </c>
-      <c r="N18">
-        <v>0.59549749438363997</v>
-      </c>
-      <c r="P18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18">
-        <v>56.06683448818761</v>
-      </c>
-      <c r="R18">
-        <v>3.431420969427855</v>
-      </c>
-      <c r="S18">
-        <v>0.56066834488187622</v>
-      </c>
-      <c r="T18">
-        <v>0.526610649421143</v>
-      </c>
-      <c r="V18" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18">
-        <v>67.905950743518545</v>
-      </c>
-      <c r="X18">
-        <v>1.907177109217931</v>
-      </c>
-      <c r="Y18">
-        <v>0.67905950743518539</v>
-      </c>
-      <c r="Z18">
-        <v>0.65084369091338901</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC18">
-        <v>64.135329890396974</v>
-      </c>
-      <c r="AD18">
-        <v>1.68409075601618</v>
-      </c>
-      <c r="AE18">
-        <v>0.64135329890396975</v>
-      </c>
-      <c r="AF18">
-        <v>0.63672088698673379</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI18">
-        <v>72.449761676139062</v>
-      </c>
-      <c r="AJ18">
-        <v>1.1524374952984751</v>
-      </c>
-      <c r="AK18">
-        <v>0.72449761676139068</v>
-      </c>
-      <c r="AL18">
-        <v>0.70710701381478613</v>
-      </c>
-    </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>71.950881928044367</v>
-      </c>
-      <c r="F19">
-        <v>2.9744938802148249</v>
-      </c>
-      <c r="G19">
-        <v>0.71950881928044352</v>
-      </c>
-      <c r="H19">
-        <v>0.68220800817746774</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19">
-        <v>73.129611847853354</v>
-      </c>
-      <c r="L19">
-        <v>3.24314178662953</v>
-      </c>
-      <c r="M19">
-        <v>0.7312961184785336</v>
-      </c>
-      <c r="N19">
-        <v>0.69462780302500571</v>
-      </c>
-      <c r="P19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19">
-        <v>81.246204551942498</v>
-      </c>
-      <c r="R19">
-        <v>0.80025550432517689</v>
-      </c>
-      <c r="S19">
-        <v>0.81246204551942491</v>
-      </c>
-      <c r="T19">
-        <v>0.80088631202462968</v>
-      </c>
-      <c r="V19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19">
-        <v>80.886858882862299</v>
-      </c>
-      <c r="X19">
-        <v>1.373856830312798</v>
-      </c>
-      <c r="Y19">
-        <v>0.808868588828623</v>
-      </c>
-      <c r="Z19">
-        <v>0.7758612269075279</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC19">
-        <v>85.31388679832871</v>
-      </c>
-      <c r="AD19">
-        <v>1.100159122078423</v>
-      </c>
-      <c r="AE19">
-        <v>0.85313886798328709</v>
-      </c>
-      <c r="AF19">
-        <v>0.82376232663774807</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI19">
-        <v>73.523040856754818</v>
-      </c>
-      <c r="AJ19">
-        <v>2.3791233061924228</v>
-      </c>
-      <c r="AK19">
-        <v>0.73523040856754818</v>
-      </c>
-      <c r="AL19">
-        <v>0.688068953077556</v>
-      </c>
-    </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>81.67484147786746</v>
-      </c>
-      <c r="F20">
-        <v>1.5205251323045861</v>
-      </c>
-      <c r="G20">
-        <v>0.81674841477867444</v>
-      </c>
-      <c r="H20">
-        <v>0.79642816693304619</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20">
-        <v>91.537037517625578</v>
-      </c>
-      <c r="L20">
-        <v>0.28262625252802231</v>
-      </c>
-      <c r="M20">
-        <v>0.91537037517625586</v>
-      </c>
-      <c r="N20">
-        <v>0.91439554004743739</v>
-      </c>
-      <c r="P20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20">
-        <v>83.429181913338354</v>
-      </c>
-      <c r="R20">
-        <v>1.6492829914466329</v>
-      </c>
-      <c r="S20">
-        <v>0.83429181913338346</v>
-      </c>
-      <c r="T20">
-        <v>0.81132405426226362</v>
-      </c>
-      <c r="V20" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20">
-        <v>89.420064187406467</v>
-      </c>
-      <c r="X20">
-        <v>0.48065464561950649</v>
-      </c>
-      <c r="Y20">
-        <v>0.89420064187406467</v>
-      </c>
-      <c r="Z20">
-        <v>0.89013751423158427</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC20">
-        <v>70.696805335686292</v>
-      </c>
-      <c r="AD20">
-        <v>4.7476846008521534</v>
-      </c>
-      <c r="AE20">
-        <v>0.70696805335686297</v>
-      </c>
-      <c r="AF20">
-        <v>0.64458715739741579</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI20">
-        <v>81.951919999307961</v>
-      </c>
-      <c r="AJ20">
-        <v>1.328221526055529</v>
-      </c>
-      <c r="AK20">
-        <v>0.81951919999307954</v>
-      </c>
-      <c r="AL20">
-        <v>0.78041776379596839</v>
-      </c>
-    </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>84.01698976634745</v>
-      </c>
-      <c r="F21">
-        <v>0.85522080927560928</v>
-      </c>
-      <c r="G21">
-        <v>0.84016989766347461</v>
-      </c>
-      <c r="H21">
-        <v>0.82940777913188235</v>
-      </c>
-      <c r="J21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21">
-        <v>87.527487262000534</v>
-      </c>
-      <c r="L21">
-        <v>0.67287297450887606</v>
-      </c>
-      <c r="M21">
-        <v>0.87527487262000536</v>
-      </c>
-      <c r="N21">
-        <v>0.85978734531429224</v>
-      </c>
-      <c r="P21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21">
-        <v>86.814678327667195</v>
-      </c>
-      <c r="R21">
-        <v>0.58272501235478558</v>
-      </c>
-      <c r="S21">
-        <v>0.86814678327667194</v>
-      </c>
-      <c r="T21">
-        <v>0.86497463038913835</v>
-      </c>
-      <c r="V21" t="s">
-        <v>22</v>
-      </c>
-      <c r="W21">
-        <v>80.7987093313956</v>
-      </c>
-      <c r="X21">
-        <v>0.95571905834100712</v>
-      </c>
-      <c r="Y21">
-        <v>0.80798709331395602</v>
-      </c>
-      <c r="Z21">
-        <v>0.78527380529500268</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC21">
-        <v>63.378575939238218</v>
-      </c>
-      <c r="AD21">
-        <v>2.3755321566577172</v>
-      </c>
-      <c r="AE21">
-        <v>0.63378575939238235</v>
-      </c>
-      <c r="AF21">
-        <v>0.58986598098859244</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI21">
-        <v>84.821927525324625</v>
-      </c>
-      <c r="AJ21">
-        <v>0.85206242584659631</v>
-      </c>
-      <c r="AK21">
-        <v>0.84821927525324603</v>
-      </c>
-      <c r="AL21">
-        <v>0.82936287596222691</v>
-      </c>
-    </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22">
-        <v>86.613552020346191</v>
-      </c>
-      <c r="F22">
-        <v>0.84774992255267223</v>
-      </c>
-      <c r="G22">
-        <v>0.86613552020346207</v>
-      </c>
-      <c r="H22">
-        <v>0.84701038278137764</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22">
-        <v>74.14242337736485</v>
-      </c>
-      <c r="L22">
-        <v>1.718887709765841</v>
-      </c>
-      <c r="M22">
-        <v>0.74142423377364852</v>
-      </c>
-      <c r="N22">
-        <v>0.695536403846306</v>
-      </c>
-      <c r="P22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22">
-        <v>84.707912698206741</v>
-      </c>
-      <c r="R22">
-        <v>0.65868478581687673</v>
-      </c>
-      <c r="S22">
-        <v>0.84707912698206722</v>
-      </c>
-      <c r="T22">
-        <v>0.82499437435768141</v>
-      </c>
-      <c r="V22" t="s">
-        <v>23</v>
-      </c>
-      <c r="W22">
-        <v>86.211991453213258</v>
-      </c>
-      <c r="X22">
-        <v>0.72120984244141551</v>
-      </c>
-      <c r="Y22">
-        <v>0.86211991453213277</v>
-      </c>
-      <c r="Z22">
-        <v>0.83778006698204499</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC22">
-        <v>73.33099767299025</v>
-      </c>
-      <c r="AD22">
-        <v>2.444129394362144</v>
-      </c>
-      <c r="AE22">
-        <v>0.7333099767299025</v>
-      </c>
-      <c r="AF22">
-        <v>0.68769859459016203</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI22">
-        <v>80.861512642842939</v>
-      </c>
-      <c r="AJ22">
-        <v>1.850171970811336</v>
-      </c>
-      <c r="AK22">
-        <v>0.80861512642842936</v>
-      </c>
-      <c r="AL22">
-        <v>0.78075325602337631</v>
-      </c>
-    </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23">
-        <v>81.718007941245176</v>
-      </c>
-      <c r="F23">
-        <v>1.1684349441756861</v>
-      </c>
-      <c r="G23">
-        <v>0.81718007941245163</v>
-      </c>
-      <c r="H23">
-        <v>0.78754980139429576</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23">
-        <v>89.621190494727472</v>
-      </c>
-      <c r="L23">
-        <v>0.52598324678553277</v>
-      </c>
-      <c r="M23">
-        <v>0.89621190494727476</v>
-      </c>
-      <c r="N23">
-        <v>0.89133925510316114</v>
-      </c>
-      <c r="P23" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23">
-        <v>90.857706381543096</v>
-      </c>
-      <c r="R23">
-        <v>0.40157743977282118</v>
-      </c>
-      <c r="S23">
-        <v>0.90857706381543102</v>
-      </c>
-      <c r="T23">
-        <v>0.90567562071749952</v>
-      </c>
-      <c r="V23" t="s">
-        <v>24</v>
-      </c>
-      <c r="W23">
-        <v>92.508931738163824</v>
-      </c>
-      <c r="X23">
-        <v>0.31474764357277912</v>
-      </c>
-      <c r="Y23">
-        <v>0.92508931738163835</v>
-      </c>
-      <c r="Z23">
-        <v>0.92331005594046722</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC23">
-        <v>76.310867741070425</v>
-      </c>
-      <c r="AD23">
-        <v>1.162875557889163</v>
-      </c>
-      <c r="AE23">
-        <v>0.76310867741070421</v>
-      </c>
-      <c r="AF23">
-        <v>0.73777901086899933</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI23">
-        <v>60.519122137734747</v>
-      </c>
-      <c r="AJ23">
-        <v>6.5558015202303981</v>
-      </c>
-      <c r="AK23">
-        <v>0.60519122137734749</v>
-      </c>
-      <c r="AL23">
-        <v>0.53876321404756911</v>
-      </c>
-    </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24">
-        <v>75.170373446137077</v>
-      </c>
-      <c r="F24">
-        <v>1.442286452852811</v>
-      </c>
-      <c r="G24">
-        <v>0.75170373446137073</v>
-      </c>
-      <c r="H24">
-        <v>0.73277138806817965</v>
-      </c>
-      <c r="J24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24">
-        <v>83.323039126636033</v>
-      </c>
-      <c r="L24">
-        <v>0.77585093412950912</v>
-      </c>
-      <c r="M24">
-        <v>0.83323039126636045</v>
-      </c>
-      <c r="N24">
-        <v>0.83149966673701781</v>
-      </c>
-      <c r="P24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24">
-        <v>75.670810301127176</v>
-      </c>
-      <c r="R24">
-        <v>1.8224452044193939</v>
-      </c>
-      <c r="S24">
-        <v>0.75670810301127178</v>
-      </c>
-      <c r="T24">
-        <v>0.72169098392896913</v>
-      </c>
-      <c r="V24" t="s">
-        <v>25</v>
-      </c>
-      <c r="W24">
-        <v>73.118539087708371</v>
-      </c>
-      <c r="X24">
-        <v>1.4517886082705129</v>
-      </c>
-      <c r="Y24">
-        <v>0.73118539087708379</v>
-      </c>
-      <c r="Z24">
-        <v>0.70932829104337958</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC24">
-        <v>80.253289388316517</v>
-      </c>
-      <c r="AD24">
-        <v>0.89313284387608294</v>
-      </c>
-      <c r="AE24">
-        <v>0.80253289388316507</v>
-      </c>
-      <c r="AF24">
-        <v>0.80044792749529936</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI24">
-        <v>74.969593162570604</v>
-      </c>
-      <c r="AJ24">
-        <v>1.8290673345302291</v>
-      </c>
-      <c r="AK24">
-        <v>0.74969593162570614</v>
-      </c>
-      <c r="AL24">
-        <v>0.7233382864497333</v>
-      </c>
-    </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25">
-        <v>85.340790145243474</v>
-      </c>
-      <c r="F25">
-        <v>0.45845098687321079</v>
-      </c>
-      <c r="G25">
-        <v>0.85340790145243461</v>
-      </c>
-      <c r="H25">
-        <v>0.84627109934025291</v>
-      </c>
-      <c r="J25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25">
-        <v>91.358662272164992</v>
-      </c>
-      <c r="L25">
-        <v>0.28531586329054998</v>
-      </c>
-      <c r="M25">
-        <v>0.91358662272164981</v>
-      </c>
-      <c r="N25">
-        <v>0.90981054404020312</v>
-      </c>
-      <c r="P25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25">
-        <v>82.19690481751573</v>
-      </c>
-      <c r="R25">
-        <v>0.77967806029676745</v>
-      </c>
-      <c r="S25">
-        <v>0.82196904817515715</v>
-      </c>
-      <c r="T25">
-        <v>0.78861268142314245</v>
-      </c>
-      <c r="V25" t="s">
-        <v>26</v>
-      </c>
-      <c r="W25">
-        <v>82.125969947836921</v>
-      </c>
-      <c r="X25">
-        <v>1.6846716839867379</v>
-      </c>
-      <c r="Y25">
-        <v>0.82125969947836919</v>
-      </c>
-      <c r="Z25">
-        <v>0.78481082561258708</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC25">
-        <v>84.928848865474606</v>
-      </c>
-      <c r="AD25">
-        <v>0.59183171584760808</v>
-      </c>
-      <c r="AE25">
-        <v>0.84928848865474615</v>
-      </c>
-      <c r="AF25">
-        <v>0.82961274691533526</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI25">
-        <v>84.530402512132454</v>
-      </c>
-      <c r="AJ25">
-        <v>0.62539974461308023</v>
-      </c>
-      <c r="AK25">
-        <v>0.84530402512132452</v>
-      </c>
-      <c r="AL25">
-        <v>0.83246781105298451</v>
-      </c>
-    </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>92.923987231723459</v>
-      </c>
-      <c r="F26">
-        <v>0.2080748306225359</v>
-      </c>
-      <c r="G26">
-        <v>0.92923987231723459</v>
-      </c>
-      <c r="H26">
-        <v>0.92641277256494836</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26">
-        <v>93.27520134257216</v>
-      </c>
-      <c r="L26">
-        <v>0.20998118863448101</v>
-      </c>
-      <c r="M26">
-        <v>0.93275201342572167</v>
-      </c>
-      <c r="N26">
-        <v>0.93171474731238924</v>
-      </c>
-      <c r="P26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26">
-        <v>84.314570195243903</v>
-      </c>
-      <c r="R26">
-        <v>1.141032243995511</v>
-      </c>
-      <c r="S26">
-        <v>0.8431457019524391</v>
-      </c>
-      <c r="T26">
-        <v>0.8186757557502069</v>
-      </c>
-      <c r="V26" t="s">
-        <v>27</v>
-      </c>
-      <c r="W26">
-        <v>93.09994031090234</v>
-      </c>
-      <c r="X26">
-        <v>0.18596705138417441</v>
-      </c>
-      <c r="Y26">
-        <v>0.9309994031090234</v>
-      </c>
-      <c r="Z26">
-        <v>0.92966619362445857</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC26">
-        <v>92.419398091678985</v>
-      </c>
-      <c r="AD26">
-        <v>0.40145018588372677</v>
-      </c>
-      <c r="AE26">
-        <v>0.92419398091678995</v>
-      </c>
-      <c r="AF26">
-        <v>0.91899894309568952</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI26">
-        <v>81.596380591527605</v>
-      </c>
-      <c r="AJ26">
-        <v>1.207368070850404</v>
-      </c>
-      <c r="AK26">
-        <v>0.81596380591527606</v>
-      </c>
-      <c r="AL26">
-        <v>0.77650935435675905</v>
-      </c>
-    </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27">
-        <v>94.602461959013482</v>
-      </c>
-      <c r="F27">
-        <v>0.15430560393089929</v>
-      </c>
-      <c r="G27">
-        <v>0.94602461959013484</v>
-      </c>
-      <c r="H27">
-        <v>0.94592374220514464</v>
-      </c>
-      <c r="J27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27">
-        <v>94.307303696398748</v>
-      </c>
-      <c r="L27">
-        <v>0.2446328761737126</v>
-      </c>
-      <c r="M27">
-        <v>0.9430730369639877</v>
-      </c>
-      <c r="N27">
-        <v>0.94281895375902958</v>
-      </c>
-      <c r="P27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27">
-        <v>92.037301360738411</v>
-      </c>
-      <c r="R27">
-        <v>0.3338276133637284</v>
-      </c>
-      <c r="S27">
-        <v>0.92037301360738422</v>
-      </c>
-      <c r="T27">
-        <v>0.91708318438733816</v>
-      </c>
-      <c r="V27" t="s">
-        <v>28</v>
-      </c>
-      <c r="W27">
-        <v>93.924341906071859</v>
-      </c>
-      <c r="X27">
-        <v>0.21227790192591939</v>
-      </c>
-      <c r="Y27">
-        <v>0.93924341906071851</v>
-      </c>
-      <c r="Z27">
-        <v>0.93944318892550582</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC27">
-        <v>82.863087050926055</v>
-      </c>
-      <c r="AD27">
-        <v>0.73152537583165622</v>
-      </c>
-      <c r="AE27">
-        <v>0.82863087050926043</v>
-      </c>
-      <c r="AF27">
-        <v>0.81512583211357525</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI27">
-        <v>80.003979273177109</v>
-      </c>
-      <c r="AJ27">
-        <v>5.0302732801354111</v>
-      </c>
-      <c r="AK27">
-        <v>0.80003979273177106</v>
-      </c>
-      <c r="AL27">
-        <v>0.75292438282480478</v>
-      </c>
-    </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28">
-        <v>89.740914713795107</v>
-      </c>
-      <c r="F28">
-        <v>0.30332776320095972</v>
-      </c>
-      <c r="G28">
-        <v>0.89740914713795095</v>
-      </c>
-      <c r="H28">
-        <v>0.89162221543279629</v>
-      </c>
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28">
-        <v>76.499969722921477</v>
-      </c>
-      <c r="L28">
-        <v>1.402598185521909</v>
-      </c>
-      <c r="M28">
-        <v>0.76499969722921479</v>
-      </c>
-      <c r="N28">
-        <v>0.7222338944138802</v>
-      </c>
-      <c r="P28" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q28">
-        <v>68.629918943935508</v>
-      </c>
-      <c r="R28">
-        <v>2.1945861187078588</v>
-      </c>
-      <c r="S28">
-        <v>0.68629918943935508</v>
-      </c>
-      <c r="T28">
-        <v>0.61123368345014262</v>
-      </c>
-      <c r="V28" t="s">
-        <v>29</v>
-      </c>
-      <c r="W28">
-        <v>87.562868190901298</v>
-      </c>
-      <c r="X28">
-        <v>0.38100426392707681</v>
-      </c>
-      <c r="Y28">
-        <v>0.875628681909013</v>
-      </c>
-      <c r="Z28">
-        <v>0.86415415866172496</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC28">
-        <v>73.030303030303031</v>
-      </c>
-      <c r="AD28">
-        <v>2.3320162837185232</v>
-      </c>
-      <c r="AE28">
-        <v>0.73030303030303023</v>
-      </c>
-      <c r="AF28">
-        <v>0.68700914843148175</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI28">
-        <v>59.437538387010271</v>
-      </c>
-      <c r="AJ28">
-        <v>3.86769099628015</v>
-      </c>
-      <c r="AK28">
-        <v>0.59437538387010269</v>
-      </c>
-      <c r="AL28">
-        <v>0.52557618856328203</v>
-      </c>
-    </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>83.482037041842915</v>
-      </c>
-      <c r="F29">
-        <v>0.66229056725462476</v>
-      </c>
-      <c r="G29">
-        <v>0.83482037041842927</v>
-      </c>
-      <c r="H29">
-        <v>0.83300301725612846</v>
-      </c>
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29">
-        <v>87.642021124750215</v>
-      </c>
-      <c r="L29">
-        <v>0.44035401882629233</v>
-      </c>
-      <c r="M29">
-        <v>0.87642021124750225</v>
-      </c>
-      <c r="N29">
-        <v>0.86751719949445594</v>
-      </c>
-      <c r="P29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29">
-        <v>76.131627436223496</v>
-      </c>
-      <c r="R29">
-        <v>1.880996495834518</v>
-      </c>
-      <c r="S29">
-        <v>0.76131627436223492</v>
-      </c>
-      <c r="T29">
-        <v>0.73746675469161382</v>
-      </c>
-      <c r="V29" t="s">
-        <v>30</v>
-      </c>
-      <c r="W29">
-        <v>83.070441785828592</v>
-      </c>
-      <c r="X29">
-        <v>0.78216838778053743</v>
-      </c>
-      <c r="Y29">
-        <v>0.83070441785828597</v>
-      </c>
-      <c r="Z29">
-        <v>0.83168039785130343</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC29">
-        <v>83.458420920596197</v>
-      </c>
-      <c r="AD29">
-        <v>0.84818921369345246</v>
-      </c>
-      <c r="AE29">
-        <v>0.83458420920596199</v>
-      </c>
-      <c r="AF29">
-        <v>0.81916465145658268</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI29">
-        <v>75.93716208617721</v>
-      </c>
-      <c r="AJ29">
-        <v>2.107993115843843</v>
-      </c>
-      <c r="AK29">
-        <v>0.75937162086177212</v>
-      </c>
-      <c r="AL29">
-        <v>0.71447517589983234</v>
-      </c>
-    </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30">
-        <v>82.368186576008441</v>
-      </c>
-      <c r="F30">
-        <v>0.89266394139461536</v>
-      </c>
-      <c r="G30">
-        <v>0.8236818657600844</v>
-      </c>
-      <c r="H30">
-        <v>0.80957852296078392</v>
-      </c>
-      <c r="J30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30">
-        <v>90.183046566146771</v>
-      </c>
-      <c r="L30">
-        <v>0.524725295715325</v>
-      </c>
-      <c r="M30">
-        <v>0.90183046566146763</v>
-      </c>
-      <c r="N30">
-        <v>0.88770091692291619</v>
-      </c>
-      <c r="P30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q30">
-        <v>77.019178366594872</v>
-      </c>
-      <c r="R30">
-        <v>1.1123147762451779</v>
-      </c>
-      <c r="S30">
-        <v>0.77019178366594865</v>
-      </c>
-      <c r="T30">
-        <v>0.75491492297135632</v>
-      </c>
-      <c r="V30" t="s">
-        <v>31</v>
-      </c>
-      <c r="W30">
-        <v>89.284682393446317</v>
-      </c>
-      <c r="X30">
-        <v>0.29225868958771267</v>
-      </c>
-      <c r="Y30">
-        <v>0.89284682393446313</v>
-      </c>
-      <c r="Z30">
-        <v>0.89133408996158781</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC30">
-        <v>80.543862836183706</v>
-      </c>
-      <c r="AD30">
-        <v>0.78395528307106965</v>
-      </c>
-      <c r="AE30">
-        <v>0.80543862836183711</v>
-      </c>
-      <c r="AF30">
-        <v>0.79163688270960297</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI30">
-        <v>86.809401465410602</v>
-      </c>
-      <c r="AJ30">
-        <v>0.54055211295296135</v>
-      </c>
-      <c r="AK30">
-        <v>0.86809401465410596</v>
-      </c>
-      <c r="AL30">
-        <v>0.86669437810052652</v>
-      </c>
-    </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31">
-        <v>79.23961279941868</v>
-      </c>
-      <c r="F31">
-        <v>1.301270894361672</v>
-      </c>
-      <c r="G31">
-        <v>0.79239612799418679</v>
-      </c>
-      <c r="H31">
-        <v>0.7649280409808249</v>
-      </c>
-      <c r="J31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31">
-        <v>91.241360219379061</v>
-      </c>
-      <c r="L31">
-        <v>0.26759935144189823</v>
-      </c>
-      <c r="M31">
-        <v>0.91241360219379053</v>
-      </c>
-      <c r="N31">
-        <v>0.91038659483916129</v>
-      </c>
-      <c r="P31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31">
-        <v>86.055329198349469</v>
-      </c>
-      <c r="R31">
-        <v>0.53464088529556952</v>
-      </c>
-      <c r="S31">
-        <v>0.86055329198349462</v>
-      </c>
-      <c r="T31">
-        <v>0.85525633195353734</v>
-      </c>
-      <c r="V31" t="s">
-        <v>32</v>
-      </c>
-      <c r="W31">
-        <v>72.600368515298584</v>
-      </c>
-      <c r="X31">
-        <v>3.28950143929795</v>
-      </c>
-      <c r="Y31">
-        <v>0.72600368515298574</v>
-      </c>
-      <c r="Z31">
-        <v>0.68611110532021513</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC31">
-        <v>59.486500748276363</v>
-      </c>
-      <c r="AD31">
-        <v>5.9342245247253329</v>
-      </c>
-      <c r="AE31">
-        <v>0.59486500748276372</v>
-      </c>
-      <c r="AF31">
-        <v>0.51364878823319882</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI31">
-        <v>64.299258644105919</v>
-      </c>
-      <c r="AJ31">
-        <v>4.61863385393311</v>
-      </c>
-      <c r="AK31">
-        <v>0.64299258644105917</v>
-      </c>
-      <c r="AL31">
-        <v>0.5808737682872539</v>
-      </c>
-    </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32">
-        <v>70.67180511942145</v>
-      </c>
-      <c r="F32">
-        <v>2.4669522358104099</v>
-      </c>
-      <c r="G32">
-        <v>0.70671805119421449</v>
-      </c>
-      <c r="H32">
-        <v>0.66388641086023958</v>
-      </c>
-      <c r="J32" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32">
-        <v>78.69903718890302</v>
-      </c>
-      <c r="L32">
-        <v>0.88272409263687801</v>
-      </c>
-      <c r="M32">
-        <v>0.7869903718890302</v>
-      </c>
-      <c r="N32">
-        <v>0.76800654425503012</v>
-      </c>
-      <c r="P32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32">
-        <v>75.564754020363495</v>
-      </c>
-      <c r="R32">
-        <v>1.3230925723531981</v>
-      </c>
-      <c r="S32">
-        <v>0.755647540203635</v>
-      </c>
-      <c r="T32">
-        <v>0.7177047465559856</v>
-      </c>
-      <c r="V32" t="s">
-        <v>33</v>
-      </c>
-      <c r="W32">
-        <v>73.895708440384425</v>
-      </c>
-      <c r="X32">
-        <v>1.56899131234677</v>
-      </c>
-      <c r="Y32">
-        <v>0.73895708440384433</v>
-      </c>
-      <c r="Z32">
-        <v>0.71248734261008917</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC32">
-        <v>71.63331862732376</v>
-      </c>
-      <c r="AD32">
-        <v>3.59500648593521</v>
-      </c>
-      <c r="AE32">
-        <v>0.71633318627323761</v>
-      </c>
-      <c r="AF32">
-        <v>0.68989577494220833</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI32">
-        <v>48.930959610377258</v>
-      </c>
-      <c r="AJ32">
-        <v>10.61021744040074</v>
-      </c>
-      <c r="AK32">
-        <v>0.48930959610377239</v>
-      </c>
-      <c r="AL32">
-        <v>0.397818780309526</v>
-      </c>
-    </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33">
-        <v>88.178011920518344</v>
-      </c>
-      <c r="F33">
-        <v>0.35649814621986792</v>
-      </c>
-      <c r="G33">
-        <v>0.88178011920518351</v>
-      </c>
-      <c r="H33">
-        <v>0.87728859532870873</v>
-      </c>
-      <c r="J33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33">
-        <v>88.969108729314271</v>
-      </c>
-      <c r="L33">
-        <v>0.5301310381638662</v>
-      </c>
-      <c r="M33">
-        <v>0.88969108729314272</v>
-      </c>
-      <c r="N33">
-        <v>0.87375299029273479</v>
-      </c>
-      <c r="P33" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33">
-        <v>81.309007863389823</v>
-      </c>
-      <c r="R33">
-        <v>0.68280839123654002</v>
-      </c>
-      <c r="S33">
-        <v>0.81309007863389815</v>
-      </c>
-      <c r="T33">
-        <v>0.80331784600872724</v>
-      </c>
-      <c r="V33" t="s">
-        <v>34</v>
-      </c>
-      <c r="W33">
-        <v>70.043945016825404</v>
-      </c>
-      <c r="X33">
-        <v>4.333905858329187</v>
-      </c>
-      <c r="Y33">
-        <v>0.70043945016825404</v>
-      </c>
-      <c r="Z33">
-        <v>0.63468188818337334</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC33">
-        <v>82.541544477028353</v>
-      </c>
-      <c r="AD33">
-        <v>1.2131098004279921</v>
-      </c>
-      <c r="AE33">
-        <v>0.8254154447702835</v>
-      </c>
-      <c r="AF33">
-        <v>0.7955470124398083</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI33">
-        <v>90.239275426258018</v>
-      </c>
-      <c r="AJ33">
-        <v>0.3893212240509456</v>
-      </c>
-      <c r="AK33">
-        <v>0.90239275426258003</v>
-      </c>
-      <c r="AL33">
-        <v>0.90028698402350071</v>
-      </c>
-    </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34">
-        <v>88.230434519329748</v>
-      </c>
-      <c r="F34">
-        <v>0.55044390026375067</v>
-      </c>
-      <c r="G34">
-        <v>0.88230434519329748</v>
-      </c>
-      <c r="H34">
-        <v>0.87308556707364338</v>
-      </c>
-      <c r="J34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34">
-        <v>91.62328393844237</v>
-      </c>
-      <c r="L34">
-        <v>0.31411350235669788</v>
-      </c>
-      <c r="M34">
-        <v>0.91623283938442379</v>
-      </c>
-      <c r="N34">
-        <v>0.91005548343185794</v>
-      </c>
-      <c r="P34" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q34">
-        <v>81.299751727956121</v>
-      </c>
-      <c r="R34">
-        <v>0.86408840583753777</v>
-      </c>
-      <c r="S34">
-        <v>0.81299751727956127</v>
-      </c>
-      <c r="T34">
-        <v>0.80767733382427809</v>
-      </c>
-      <c r="V34" t="s">
-        <v>35</v>
-      </c>
-      <c r="W34">
-        <v>84.140866270469473</v>
-      </c>
-      <c r="X34">
-        <v>0.72005672767671369</v>
-      </c>
-      <c r="Y34">
-        <v>0.84140866270469472</v>
-      </c>
-      <c r="Z34">
-        <v>0.83032104101573356</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC34">
-        <v>87.407763042932899</v>
-      </c>
-      <c r="AD34">
-        <v>0.47073882727172528</v>
-      </c>
-      <c r="AE34">
-        <v>0.87407763042932896</v>
-      </c>
-      <c r="AF34">
-        <v>0.87110235537310676</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI34">
-        <v>80.09135027119612</v>
-      </c>
-      <c r="AJ34">
-        <v>1.102536534363429</v>
-      </c>
-      <c r="AK34">
-        <v>0.80091350271196116</v>
-      </c>
-      <c r="AL34">
-        <v>0.77646470613647978</v>
-      </c>
-    </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35">
-        <v>86.189932438861931</v>
-      </c>
-      <c r="F35">
-        <v>0.50835204198947381</v>
-      </c>
-      <c r="G35">
-        <v>0.86189932438861927</v>
-      </c>
-      <c r="H35">
-        <v>0.85616206066666578</v>
-      </c>
-      <c r="J35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35">
-        <v>88.569278280953981</v>
-      </c>
-      <c r="L35">
-        <v>0.40959641327695612</v>
-      </c>
-      <c r="M35">
-        <v>0.88569278280953989</v>
-      </c>
-      <c r="N35">
-        <v>0.88411804202144872</v>
-      </c>
-      <c r="P35" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q35">
-        <v>73.44951080891704</v>
-      </c>
-      <c r="R35">
-        <v>2.1050010538655108</v>
-      </c>
-      <c r="S35">
-        <v>0.73449510808917029</v>
-      </c>
-      <c r="T35">
-        <v>0.69761332216987504</v>
-      </c>
-      <c r="V35" t="s">
-        <v>36</v>
-      </c>
-      <c r="W35">
-        <v>89.258817117795132</v>
-      </c>
-      <c r="X35">
-        <v>0.40425224124208542</v>
-      </c>
-      <c r="Y35">
-        <v>0.89258817117795142</v>
-      </c>
-      <c r="Z35">
-        <v>0.89096399890451949</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC35">
-        <v>69.243592072595789</v>
-      </c>
-      <c r="AD35">
-        <v>2.9798006094427052</v>
-      </c>
-      <c r="AE35">
-        <v>0.69243592072595783</v>
-      </c>
-      <c r="AF35">
-        <v>0.64930268507740085</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI35">
-        <v>71.113417936141303</v>
-      </c>
-      <c r="AJ35">
-        <v>2.613556146669449</v>
-      </c>
-      <c r="AK35">
-        <v>0.71113417936141321</v>
-      </c>
-      <c r="AL35">
-        <v>0.65747158962958985</v>
-      </c>
-    </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36">
-        <v>86.510177423680133</v>
-      </c>
-      <c r="F36">
-        <v>2.069815860882863</v>
-      </c>
-      <c r="G36">
-        <v>0.86510177423680135</v>
-      </c>
-      <c r="H36">
-        <v>0.84695108445137879</v>
-      </c>
-      <c r="J36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36">
-        <v>91.710914454277287</v>
-      </c>
-      <c r="L36">
-        <v>0.51411899471881384</v>
-      </c>
-      <c r="M36">
-        <v>0.91710914454277292</v>
-      </c>
-      <c r="N36">
-        <v>0.9127185358455806</v>
-      </c>
-      <c r="P36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q36">
-        <v>82.745784998140124</v>
-      </c>
-      <c r="R36">
-        <v>2.6154379503454188</v>
-      </c>
-      <c r="S36">
-        <v>0.82745784998140126</v>
-      </c>
-      <c r="T36">
-        <v>0.79384384137639574</v>
-      </c>
-      <c r="V36" t="s">
-        <v>37</v>
-      </c>
-      <c r="W36">
-        <v>88.236143911279513</v>
-      </c>
-      <c r="X36">
-        <v>0.62115365187006921</v>
-      </c>
-      <c r="Y36">
-        <v>0.88236143911279508</v>
-      </c>
-      <c r="Z36">
-        <v>0.86641920385208682</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC36">
-        <v>92.07147120649833</v>
-      </c>
-      <c r="AD36">
-        <v>0.29452964318573632</v>
-      </c>
-      <c r="AE36">
-        <v>0.92071471206498323</v>
-      </c>
-      <c r="AF36">
-        <v>0.92010076000800223</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI36">
-        <v>87.324025294336451</v>
-      </c>
-      <c r="AJ36">
-        <v>0.55806833579894355</v>
-      </c>
-      <c r="AK36">
-        <v>0.8732402529433646</v>
-      </c>
-      <c r="AL36">
-        <v>0.86710911237800636</v>
-      </c>
-    </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37">
-        <v>92.460488412529529</v>
-      </c>
-      <c r="F37">
-        <v>0.24003099751444851</v>
-      </c>
-      <c r="G37">
-        <v>0.92460488412529518</v>
-      </c>
-      <c r="H37">
-        <v>0.92399743567296433</v>
-      </c>
-      <c r="J37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37">
-        <v>91.359354319674054</v>
-      </c>
-      <c r="L37">
-        <v>0.31969308261825902</v>
-      </c>
-      <c r="M37">
-        <v>0.91359354319674035</v>
-      </c>
-      <c r="N37">
-        <v>0.91196596253975193</v>
-      </c>
-      <c r="P37" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q37">
-        <v>84.234552202008672</v>
-      </c>
-      <c r="R37">
-        <v>0.58272835592040528</v>
-      </c>
-      <c r="S37">
-        <v>0.84234552202008661</v>
-      </c>
-      <c r="T37">
-        <v>0.83618841132125876</v>
-      </c>
-      <c r="V37" t="s">
-        <v>38</v>
-      </c>
-      <c r="W37">
-        <v>90.860820595333877</v>
-      </c>
-      <c r="X37">
-        <v>0.4209460313964617</v>
-      </c>
-      <c r="Y37">
-        <v>0.90860820595333869</v>
-      </c>
-      <c r="Z37">
-        <v>0.8995939101032715</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC37">
-        <v>83.109974999783731</v>
-      </c>
-      <c r="AD37">
-        <v>0.69654529395795151</v>
-      </c>
-      <c r="AE37">
-        <v>0.83109974999783742</v>
-      </c>
-      <c r="AF37">
-        <v>0.82846703207772232</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI37">
-        <v>72.578309500947242</v>
-      </c>
-      <c r="AJ37">
-        <v>2.824652979477408</v>
-      </c>
-      <c r="AK37">
-        <v>0.72578309500947236</v>
-      </c>
-      <c r="AL37">
-        <v>0.67781972750139297</v>
-      </c>
-    </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38">
-        <v>86.286992102007801</v>
-      </c>
-      <c r="F38">
-        <v>0.36182985186169392</v>
-      </c>
-      <c r="G38">
-        <v>0.86286992102007809</v>
-      </c>
-      <c r="H38">
-        <v>0.85781883598008746</v>
-      </c>
-      <c r="J38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38">
-        <v>89.67759236671597</v>
-      </c>
-      <c r="L38">
-        <v>0.27181232008790063</v>
-      </c>
-      <c r="M38">
-        <v>0.89677592366715975</v>
-      </c>
-      <c r="N38">
-        <v>0.89550147506672284</v>
-      </c>
-      <c r="P38" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q38">
-        <v>82.612133322952616</v>
-      </c>
-      <c r="R38">
-        <v>0.51548365129080298</v>
-      </c>
-      <c r="S38">
-        <v>0.8261213332295263</v>
-      </c>
-      <c r="T38">
-        <v>0.81555788555811282</v>
-      </c>
-      <c r="V38" t="s">
-        <v>39</v>
-      </c>
-      <c r="W38">
-        <v>82.871218609157523</v>
-      </c>
-      <c r="X38">
-        <v>0.73570157571965256</v>
-      </c>
-      <c r="Y38">
-        <v>0.82871218609157515</v>
-      </c>
-      <c r="Z38">
-        <v>0.81338590348193063</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC38">
-        <v>80.041090320850529</v>
-      </c>
-      <c r="AD38">
-        <v>0.79609066395011396</v>
-      </c>
-      <c r="AE38">
-        <v>0.80041090320850528</v>
-      </c>
-      <c r="AF38">
-        <v>0.7909919860060608</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI38">
-        <v>59.991608923952633</v>
-      </c>
-      <c r="AJ38">
-        <v>6.8928141909341019</v>
-      </c>
-      <c r="AK38">
-        <v>0.59991608923952633</v>
-      </c>
-      <c r="AL38">
-        <v>0.53487214937355432</v>
-      </c>
-    </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39">
-        <v>83.431344561804167</v>
-      </c>
-      <c r="F39">
-        <v>1.5299488283898379</v>
-      </c>
-      <c r="G39">
-        <v>0.83431344561804166</v>
-      </c>
-      <c r="H39">
-        <v>0.81476883667348776</v>
-      </c>
-      <c r="J39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39">
-        <v>92.657462434796145</v>
-      </c>
-      <c r="L39">
-        <v>0.31146398681274462</v>
-      </c>
-      <c r="M39">
-        <v>0.92657462434796156</v>
-      </c>
-      <c r="N39">
-        <v>0.92254584973823905</v>
-      </c>
-      <c r="P39" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q39">
-        <v>86.081540497755171</v>
-      </c>
-      <c r="R39">
-        <v>0.60148491448999264</v>
-      </c>
-      <c r="S39">
-        <v>0.86081540497755182</v>
-      </c>
-      <c r="T39">
-        <v>0.84940955501819349</v>
-      </c>
-      <c r="V39" t="s">
-        <v>40</v>
-      </c>
-      <c r="W39">
-        <v>95.371326741580816</v>
-      </c>
-      <c r="X39">
-        <v>0.18305584030919511</v>
-      </c>
-      <c r="Y39">
-        <v>0.95371326741580797</v>
-      </c>
-      <c r="Z39">
-        <v>0.95376546818572105</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC39">
-        <v>73.323817680083749</v>
-      </c>
-      <c r="AD39">
-        <v>3.6276108515670411</v>
-      </c>
-      <c r="AE39">
-        <v>0.73323817680083736</v>
-      </c>
-      <c r="AF39">
-        <v>0.68115430480437655</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI39">
-        <v>66.312684365781706</v>
-      </c>
-      <c r="AJ39">
-        <v>3.2633745329431099</v>
-      </c>
-      <c r="AK39">
-        <v>0.66312684365781716</v>
-      </c>
-      <c r="AL39">
-        <v>0.61804708612316073</v>
-      </c>
-    </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40">
-        <v>85.517608283808684</v>
-      </c>
-      <c r="F40">
-        <v>0.68253861641060209</v>
-      </c>
-      <c r="G40">
-        <v>0.85517608283808677</v>
-      </c>
-      <c r="H40">
-        <v>0.85064209701291771</v>
-      </c>
-      <c r="J40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40">
-        <v>86.401525964757482</v>
-      </c>
-      <c r="L40">
-        <v>0.64613698016289667</v>
-      </c>
-      <c r="M40">
-        <v>0.86401525964757475</v>
-      </c>
-      <c r="N40">
-        <v>0.86191114727646312</v>
-      </c>
-      <c r="P40" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q40">
-        <v>87.414683518023509</v>
-      </c>
-      <c r="R40">
-        <v>0.4645375221847341</v>
-      </c>
-      <c r="S40">
-        <v>0.87414683518023506</v>
-      </c>
-      <c r="T40">
-        <v>0.86740365229522853</v>
-      </c>
-      <c r="V40" t="s">
-        <v>41</v>
-      </c>
-      <c r="W40">
-        <v>83.452365504891901</v>
-      </c>
-      <c r="X40">
-        <v>1.0347890863191991</v>
-      </c>
-      <c r="Y40">
-        <v>0.83452365504891923</v>
-      </c>
-      <c r="Z40">
-        <v>0.80860355063486611</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC40">
-        <v>80.885388281905563</v>
-      </c>
-      <c r="AD40">
-        <v>0.88270141789384982</v>
-      </c>
-      <c r="AE40">
-        <v>0.80885388281905557</v>
-      </c>
-      <c r="AF40">
-        <v>0.80127955591665878</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI40">
-        <v>77.471258401889287</v>
-      </c>
-      <c r="AJ40">
-        <v>1.339551617959567</v>
-      </c>
-      <c r="AK40">
-        <v>0.77471258401889287</v>
-      </c>
-      <c r="AL40">
-        <v>0.736117002120945</v>
-      </c>
-    </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41">
-        <v>81.459441690672065</v>
-      </c>
-      <c r="F41">
-        <v>0.77708356278976964</v>
-      </c>
-      <c r="G41">
-        <v>0.81459441690672063</v>
-      </c>
-      <c r="H41">
-        <v>0.81033308806159243</v>
-      </c>
-      <c r="J41" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41">
-        <v>77.457071427953537</v>
-      </c>
-      <c r="L41">
-        <v>1.5972501426856569</v>
-      </c>
-      <c r="M41">
-        <v>0.77457071427953528</v>
-      </c>
-      <c r="N41">
-        <v>0.75483369159452185</v>
-      </c>
-      <c r="P41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q41">
-        <v>78.338826460436508</v>
-      </c>
-      <c r="R41">
-        <v>1.423587090865476</v>
-      </c>
-      <c r="S41">
-        <v>0.78338826460436517</v>
-      </c>
-      <c r="T41">
-        <v>0.76163826426982073</v>
-      </c>
-      <c r="V41" t="s">
-        <v>42</v>
-      </c>
-      <c r="W41">
-        <v>86.626354899263831</v>
-      </c>
-      <c r="X41">
-        <v>0.50056521423227873</v>
-      </c>
-      <c r="Y41">
-        <v>0.86626354899263835</v>
-      </c>
-      <c r="Z41">
-        <v>0.86293501822439356</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC41">
-        <v>86.087422901582187</v>
-      </c>
-      <c r="AD41">
-        <v>0.50710969714707332</v>
-      </c>
-      <c r="AE41">
-        <v>0.86087422901582189</v>
-      </c>
-      <c r="AF41">
-        <v>0.85511233576708146</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI41">
-        <v>78.434761546380159</v>
-      </c>
-      <c r="AJ41">
-        <v>1.9654331076239331</v>
-      </c>
-      <c r="AK41">
-        <v>0.78434761546380161</v>
-      </c>
-      <c r="AL41">
-        <v>0.75514826221776832</v>
-      </c>
-    </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42">
-        <v>88.614953416552041</v>
-      </c>
-      <c r="F42">
-        <v>0.5763286368059426</v>
-      </c>
-      <c r="G42">
-        <v>0.88614953416552056</v>
-      </c>
-      <c r="H42">
-        <v>0.87898356037117209</v>
-      </c>
-      <c r="J42" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42">
-        <v>92.419052067924468</v>
-      </c>
-      <c r="L42">
-        <v>0.32987444747874778</v>
-      </c>
-      <c r="M42">
-        <v>0.92419052067924456</v>
-      </c>
-      <c r="N42">
-        <v>0.92028769378060904</v>
-      </c>
-      <c r="P42" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q42">
-        <v>86.848329137795318</v>
-      </c>
-      <c r="R42">
-        <v>0.44953636451205381</v>
-      </c>
-      <c r="S42">
-        <v>0.86848329137795299</v>
-      </c>
-      <c r="T42">
-        <v>0.86626400643005907</v>
-      </c>
-      <c r="V42" t="s">
-        <v>43</v>
-      </c>
-      <c r="W42">
-        <v>90.480107959411413</v>
-      </c>
-      <c r="X42">
-        <v>0.30789520124987269</v>
-      </c>
-      <c r="Y42">
-        <v>0.90480107959411415</v>
-      </c>
-      <c r="Z42">
-        <v>0.90368669525290135</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC42">
-        <v>85.634737324717349</v>
-      </c>
-      <c r="AD42">
-        <v>0.60457164846078137</v>
-      </c>
-      <c r="AE42">
-        <v>0.85634737324717347</v>
-      </c>
-      <c r="AF42">
-        <v>0.84662363148746933</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI42">
-        <v>63.670792999939437</v>
-      </c>
-      <c r="AJ42">
-        <v>7.1687708069725584</v>
-      </c>
-      <c r="AK42">
-        <v>0.63670792999939452</v>
-      </c>
-      <c r="AL42">
-        <v>0.57020790326789905</v>
-      </c>
-    </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43">
-        <v>78.662272164984117</v>
-      </c>
-      <c r="F43">
-        <v>0.74090382284175571</v>
-      </c>
-      <c r="G43">
-        <v>0.78662272164984126</v>
-      </c>
-      <c r="H43">
-        <v>0.77905664151620668</v>
-      </c>
-      <c r="J43" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43">
-        <v>77.720049481396899</v>
-      </c>
-      <c r="L43">
-        <v>1.044258563521377</v>
-      </c>
-      <c r="M43">
-        <v>0.77720049481396902</v>
-      </c>
-      <c r="N43">
-        <v>0.76161160969188424</v>
-      </c>
-      <c r="P43" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43">
-        <v>82.22813346136212</v>
-      </c>
-      <c r="R43">
-        <v>0.71108455566215223</v>
-      </c>
-      <c r="S43">
-        <v>0.82228133461362118</v>
-      </c>
-      <c r="T43">
-        <v>0.80905428490930276</v>
-      </c>
-      <c r="V43" t="s">
-        <v>44</v>
-      </c>
-      <c r="W43">
-        <v>86.791062206420477</v>
-      </c>
-      <c r="X43">
-        <v>0.44418932102936037</v>
-      </c>
-      <c r="Y43">
-        <v>0.86791062206420477</v>
-      </c>
-      <c r="Z43">
-        <v>0.85400587611129275</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC43">
-        <v>85.138798778536142</v>
-      </c>
-      <c r="AD43">
-        <v>0.44521909324624481</v>
-      </c>
-      <c r="AE43">
-        <v>0.85138798778536151</v>
-      </c>
-      <c r="AF43">
-        <v>0.84481606369568552</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI43">
-        <v>80.175174525731194</v>
-      </c>
-      <c r="AJ43">
-        <v>2.8003034280956252</v>
-      </c>
-      <c r="AK43">
-        <v>0.80175174525731197</v>
-      </c>
-      <c r="AL43">
-        <v>0.77898202545895256</v>
-      </c>
-    </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44">
-        <v>75.139317814167939</v>
-      </c>
-      <c r="F44">
-        <v>1.4847455277030031</v>
-      </c>
-      <c r="G44">
-        <v>0.7513931781416795</v>
-      </c>
-      <c r="H44">
-        <v>0.71712625736941926</v>
-      </c>
-      <c r="J44" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44">
-        <v>76.905423057292893</v>
-      </c>
-      <c r="L44">
-        <v>1.358060164513275</v>
-      </c>
-      <c r="M44">
-        <v>0.76905423057292888</v>
-      </c>
-      <c r="N44">
-        <v>0.7481299208698784</v>
-      </c>
-      <c r="P44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q44">
-        <v>73.813095268990224</v>
-      </c>
-      <c r="R44">
-        <v>1.366392679663841</v>
-      </c>
-      <c r="S44">
-        <v>0.73813095268990214</v>
-      </c>
-      <c r="T44">
-        <v>0.72082241874744701</v>
-      </c>
-      <c r="V44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W44">
-        <v>74.548482253306688</v>
-      </c>
-      <c r="X44">
-        <v>1.4053529830483169</v>
-      </c>
-      <c r="Y44">
-        <v>0.74548482253306692</v>
-      </c>
-      <c r="Z44">
-        <v>0.72159618295748063</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC44">
-        <v>65.877646000397931</v>
-      </c>
-      <c r="AD44">
-        <v>4.9979567789666666</v>
-      </c>
-      <c r="AE44">
-        <v>0.65877646000397927</v>
-      </c>
-      <c r="AF44">
-        <v>0.60614153152017769</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI44">
-        <v>68.089516345297099</v>
-      </c>
-      <c r="AJ44">
-        <v>2.087800007994518</v>
-      </c>
-      <c r="AK44">
-        <v>0.68089516345297108</v>
-      </c>
-      <c r="AL44">
-        <v>0.65620829968813277</v>
-      </c>
-    </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45">
-        <v>81.419735464839661</v>
-      </c>
-      <c r="F45">
-        <v>0.96523536736413007</v>
-      </c>
-      <c r="G45">
-        <v>0.8141973546483966</v>
-      </c>
-      <c r="H45">
-        <v>0.79997848184990228</v>
-      </c>
-      <c r="J45" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45">
-        <v>82.095779375254125</v>
-      </c>
-      <c r="L45">
-        <v>1.1707041222742001</v>
-      </c>
-      <c r="M45">
-        <v>0.82095779375254119</v>
-      </c>
-      <c r="N45">
-        <v>0.80494847551713755</v>
-      </c>
-      <c r="P45" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q45">
-        <v>77.234578153790252</v>
-      </c>
-      <c r="R45">
-        <v>0.98005988478350137</v>
-      </c>
-      <c r="S45">
-        <v>0.77234578153790256</v>
-      </c>
-      <c r="T45">
-        <v>0.76042786852481581</v>
-      </c>
-      <c r="V45" t="s">
-        <v>46</v>
-      </c>
-      <c r="W45">
-        <v>82.362823207813221</v>
-      </c>
-      <c r="X45">
-        <v>0.91194097971019805</v>
-      </c>
-      <c r="Y45">
-        <v>0.82362823207813207</v>
-      </c>
-      <c r="Z45">
-        <v>0.8074881524456583</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC45">
-        <v>73.699426465626871</v>
-      </c>
-      <c r="AD45">
-        <v>1.2274343152947651</v>
-      </c>
-      <c r="AE45">
-        <v>0.73699426465626861</v>
-      </c>
-      <c r="AF45">
-        <v>0.71187857652203446</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI45">
-        <v>74.488447131895597</v>
-      </c>
-      <c r="AJ45">
-        <v>1.075009313489621</v>
-      </c>
-      <c r="AK45">
-        <v>0.74488447131895608</v>
-      </c>
-      <c r="AL45">
-        <v>0.7375859024862228</v>
-      </c>
-    </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46">
-        <v>96.018045138798783</v>
-      </c>
-      <c r="F46">
-        <v>9.2784852778239169E-2</v>
-      </c>
-      <c r="G46">
-        <v>0.96018045138798769</v>
-      </c>
-      <c r="H46">
-        <v>0.96023441899197481</v>
-      </c>
-      <c r="J46" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46">
-        <v>95.251602522513167</v>
-      </c>
-      <c r="L46">
-        <v>0.11993360483299351</v>
-      </c>
-      <c r="M46">
-        <v>0.95251602522513179</v>
-      </c>
-      <c r="N46">
-        <v>0.95256683858219626</v>
-      </c>
-      <c r="P46" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q46">
-        <v>95.200910042474419</v>
-      </c>
-      <c r="R46">
-        <v>0.19833300263070441</v>
-      </c>
-      <c r="S46">
-        <v>0.95200910042474407</v>
-      </c>
-      <c r="T46">
-        <v>0.95229228603910321</v>
-      </c>
-      <c r="V46" t="s">
-        <v>47</v>
-      </c>
-      <c r="W46">
-        <v>95.988373601847769</v>
-      </c>
-      <c r="X46">
-        <v>0.112955286687526</v>
-      </c>
-      <c r="Y46">
-        <v>0.95988373601847776</v>
-      </c>
-      <c r="Z46">
-        <v>0.95955660197628256</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC46">
-        <v>90.566873415860002</v>
-      </c>
-      <c r="AD46">
-        <v>0.57064524933616978</v>
-      </c>
-      <c r="AE46">
-        <v>0.90566873415860005</v>
-      </c>
-      <c r="AF46">
-        <v>0.89839380342069097</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI46">
-        <v>95.439666433100641</v>
-      </c>
-      <c r="AJ46">
-        <v>0.2709737957833136</v>
-      </c>
-      <c r="AK46">
-        <v>0.95439666433100645</v>
-      </c>
-      <c r="AL46">
-        <v>0.95397495160680135</v>
-      </c>
-    </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47">
-        <v>96.711390236939764</v>
-      </c>
-      <c r="F47">
-        <v>0.1131036691860075</v>
-      </c>
-      <c r="G47">
-        <v>0.96711390236939765</v>
-      </c>
-      <c r="H47">
-        <v>0.96638568374860567</v>
-      </c>
-      <c r="J47" t="s">
-        <v>48</v>
-      </c>
-      <c r="K47">
-        <v>99.174041297935105</v>
-      </c>
-      <c r="L47">
-        <v>2.1977024801770519E-2</v>
-      </c>
-      <c r="M47">
-        <v>0.991740412979351</v>
-      </c>
-      <c r="N47">
-        <v>0.99174024877221656</v>
-      </c>
-      <c r="P47" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q47">
-        <v>98.436924194845972</v>
-      </c>
-      <c r="R47">
-        <v>7.532707621431281E-2</v>
-      </c>
-      <c r="S47">
-        <v>0.98436924194845976</v>
-      </c>
-      <c r="T47">
-        <v>0.98435958573053084</v>
-      </c>
-      <c r="V47" t="s">
-        <v>48</v>
-      </c>
-      <c r="W47">
-        <v>98.378100156575755</v>
-      </c>
-      <c r="X47">
-        <v>5.6132181339998033E-2</v>
-      </c>
-      <c r="Y47">
-        <v>0.98378100156575743</v>
-      </c>
-      <c r="Z47">
-        <v>0.98343765755046353</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC47">
-        <v>95.642868882948818</v>
-      </c>
-      <c r="AD47">
-        <v>0.16935534410736749</v>
-      </c>
-      <c r="AE47">
-        <v>0.95642868882948806</v>
-      </c>
-      <c r="AF47">
-        <v>0.95545257975089426</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI47">
-        <v>85.029974307736225</v>
-      </c>
-      <c r="AJ47">
-        <v>5.1751114641350986</v>
-      </c>
-      <c r="AK47">
-        <v>0.85029974307736222</v>
-      </c>
-      <c r="AL47">
-        <v>0.8215900398871584</v>
-      </c>
-    </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48">
-        <v>88.391422071125177</v>
-      </c>
-      <c r="F48">
-        <v>0.9737045681752392</v>
-      </c>
-      <c r="G48">
-        <v>0.88391422071125181</v>
-      </c>
-      <c r="H48">
-        <v>0.87022695707743836</v>
-      </c>
-      <c r="J48" t="s">
-        <v>49</v>
-      </c>
-      <c r="K48">
-        <v>79.059507435185424</v>
-      </c>
-      <c r="L48">
-        <v>5.0022661740233048</v>
-      </c>
-      <c r="M48">
-        <v>0.79059507435185428</v>
-      </c>
-      <c r="N48">
-        <v>0.73867967971266413</v>
-      </c>
-      <c r="P48" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q48">
-        <v>92.805128072042152</v>
-      </c>
-      <c r="R48">
-        <v>0.81307136926639867</v>
-      </c>
-      <c r="S48">
-        <v>0.92805128072042142</v>
-      </c>
-      <c r="T48">
-        <v>0.91001170284339017</v>
-      </c>
-      <c r="V48" t="s">
-        <v>49</v>
-      </c>
-      <c r="W48">
-        <v>92.566717705170461</v>
-      </c>
-      <c r="X48">
-        <v>0.85651834967605311</v>
-      </c>
-      <c r="Y48">
-        <v>0.92566717705170465</v>
-      </c>
-      <c r="Z48">
-        <v>0.90298799583935951</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC48">
-        <v>92.301577003261272</v>
-      </c>
-      <c r="AD48">
-        <v>0.83108791711362873</v>
-      </c>
-      <c r="AE48">
-        <v>0.92301577003261281</v>
-      </c>
-      <c r="AF48">
-        <v>0.90061306816279596</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI48">
-        <v>92.625368731563427</v>
-      </c>
-      <c r="AJ48">
-        <v>1.3132708158974919</v>
-      </c>
-      <c r="AK48">
-        <v>0.92625368731563429</v>
-      </c>
-      <c r="AL48">
-        <v>0.9034545905515351</v>
-      </c>
-    </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49">
-        <f>AVERAGE(E4:E48)</f>
-        <v>80.316902010878607</v>
-      </c>
-      <c r="J49" t="s">
-        <v>50</v>
-      </c>
-      <c r="K49">
-        <f>AVERAGE(K4:K48)</f>
-        <v>81.396842148769082</v>
-      </c>
-      <c r="P49" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q49">
-        <f>AVERAGE(Q4:Q48)</f>
-        <v>76.111163975851383</v>
-      </c>
-      <c r="V49" t="s">
-        <v>50</v>
-      </c>
-      <c r="W49">
-        <f>AVERAGE(W4:W48)</f>
-        <v>78.251386257666596</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC49">
-        <f>AVERAGE(AC4:AC48)</f>
-        <v>73.843047469653214</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI49">
-        <f>AVERAGE(AI4:AI48)</f>
-        <v>71.20017570317313</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17187,11 +17187,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -17200,6 +17195,11 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17752,6 +17752,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -17760,11 +17765,6 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
